--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_FuturesConvAdjQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_FuturesConvAdjQuotes.xlsx
@@ -103,9 +103,6 @@
     <t>FamilyName</t>
   </si>
   <si>
-    <t>Libor</t>
-  </si>
-  <si>
     <t>3M</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>HKD</t>
+  </si>
+  <si>
+    <t>Hibor</t>
   </si>
 </sst>
 </file>
@@ -868,7 +868,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -876,7 +876,7 @@
     <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="4.28515625" style="2" customWidth="1"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="D8" s="12" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>X:\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -1008,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -1056,7 +1056,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"ibor,Libor"</formula1>
+      <formula1>"ibor,Libor,Hibor"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
       <formula1>"EUR,USD,GBP,JPY,CHF,HKD,CHY,AUD,PLN,HUF"</formula1>
@@ -1114,10 +1114,10 @@
       </c>
       <c r="F4" s="23" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$G$4</f>
-        <v>HkdLibor1M</v>
+        <v>HkdHibor1M</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
@@ -1157,19 +1157,19 @@
       </c>
       <c r="D7" s="17" t="str">
         <f t="array" ref="D7:D126">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C7:$C126)</f>
-        <v>Q3</v>
+        <v>X3</v>
       </c>
       <c r="E7" s="18" t="str">
         <f t="shared" ref="E7:E38" si="0">Currency&amp;"FUT"&amp;$G$4&amp;$D7&amp;QuoteSuffix</f>
-        <v>HKDFUT1MQ3_Quote</v>
+        <v>HKDFUT1MX3_Quote</v>
       </c>
       <c r="F7" s="19" t="str">
         <f t="shared" ref="F7:F38" si="1">Currency&amp;"FUT"&amp;$G$4&amp;$D7&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>HKDFUT1MQ3ConvAdj_Quote</v>
+        <v>HKDFUT1MX3ConvAdj_Quote</v>
       </c>
       <c r="G7" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F7,IborIndex,$D7,$E7,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX3ConvAdj_Quote#0001</v>
       </c>
       <c r="H7" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -1185,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="E8" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MU3_Quote</v>
+        <v>HKDFUT1MZ3_Quote</v>
       </c>
       <c r="F8" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MU3ConvAdj_Quote</v>
+        <v>HKDFUT1MZ3ConvAdj_Quote</v>
       </c>
       <c r="G8" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F8,IborIndex,$D8,$E8,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ3ConvAdj_Quote#0001</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>V3</v>
+        <v>F4</v>
       </c>
       <c r="E9" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MV3_Quote</v>
+        <v>HKDFUT1MF4_Quote</v>
       </c>
       <c r="F9" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MV3ConvAdj_Quote</v>
+        <v>HKDFUT1MF4ConvAdj_Quote</v>
       </c>
       <c r="G9" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F9,IborIndex,$D9,$E9,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF4ConvAdj_Quote#0001</v>
       </c>
       <c r="H9" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="str">
-        <v>X3</v>
+        <v>G4</v>
       </c>
       <c r="E10" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MX3_Quote</v>
+        <v>HKDFUT1MG4_Quote</v>
       </c>
       <c r="F10" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MX3ConvAdj_Quote</v>
+        <v>HKDFUT1MG4ConvAdj_Quote</v>
       </c>
       <c r="G10" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F10,IborIndex,$D10,$E10,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX3ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MG4ConvAdj_Quote#0001</v>
       </c>
       <c r="H10" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -1269,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="str">
-        <v>Z3</v>
+        <v>H4</v>
       </c>
       <c r="E11" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MZ3_Quote</v>
+        <v>HKDFUT1MH4_Quote</v>
       </c>
       <c r="F11" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MZ3ConvAdj_Quote</v>
+        <v>HKDFUT1MH4ConvAdj_Quote</v>
       </c>
       <c r="G11" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F11,IborIndex,$D11,$E11,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH4ConvAdj_Quote#0001</v>
       </c>
       <c r="H11" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="str">
-        <v>F4</v>
+        <v>J4</v>
       </c>
       <c r="E12" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MF4_Quote</v>
+        <v>HKDFUT1MJ4_Quote</v>
       </c>
       <c r="F12" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MF4ConvAdj_Quote</v>
+        <v>HKDFUT1MJ4ConvAdj_Quote</v>
       </c>
       <c r="G12" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F12,IborIndex,$D12,$E12,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ4ConvAdj_Quote#0001</v>
       </c>
       <c r="H12" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -1325,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="str">
-        <v>G4</v>
+        <v>K4</v>
       </c>
       <c r="E13" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MG4_Quote</v>
+        <v>HKDFUT1MK4_Quote</v>
       </c>
       <c r="F13" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MG4ConvAdj_Quote</v>
+        <v>HKDFUT1MK4ConvAdj_Quote</v>
       </c>
       <c r="G13" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F13,IborIndex,$D13,$E13,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK4ConvAdj_Quote#0001</v>
       </c>
       <c r="H13" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -1353,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="str">
-        <v>H4</v>
+        <v>M4</v>
       </c>
       <c r="E14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MH4_Quote</v>
+        <v>HKDFUT1MM4_Quote</v>
       </c>
       <c r="F14" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MH4ConvAdj_Quote</v>
+        <v>HKDFUT1MM4ConvAdj_Quote</v>
       </c>
       <c r="G14" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F14,IborIndex,$D14,$E14,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM4ConvAdj_Quote#0001</v>
       </c>
       <c r="H14" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>J4</v>
+        <v>N4</v>
       </c>
       <c r="E15" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MJ4_Quote</v>
+        <v>HKDFUT1MN4_Quote</v>
       </c>
       <c r="F15" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MJ4ConvAdj_Quote</v>
+        <v>HKDFUT1MN4ConvAdj_Quote</v>
       </c>
       <c r="G15" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F15,IborIndex,$D15,$E15,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN4ConvAdj_Quote#0001</v>
       </c>
       <c r="H15" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -1409,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="str">
-        <v>K4</v>
+        <v>Q4</v>
       </c>
       <c r="E16" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MK4_Quote</v>
+        <v>HKDFUT1MQ4_Quote</v>
       </c>
       <c r="F16" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MK4ConvAdj_Quote</v>
+        <v>HKDFUT1MQ4ConvAdj_Quote</v>
       </c>
       <c r="G16" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F16,IborIndex,$D16,$E16,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ4ConvAdj_Quote#0001</v>
       </c>
       <c r="H16" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -1437,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="str">
-        <v>M4</v>
+        <v>U4</v>
       </c>
       <c r="E17" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MM4_Quote</v>
+        <v>HKDFUT1MU4_Quote</v>
       </c>
       <c r="F17" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MM4ConvAdj_Quote</v>
+        <v>HKDFUT1MU4ConvAdj_Quote</v>
       </c>
       <c r="G17" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F17,IborIndex,$D17,$E17,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU4ConvAdj_Quote#0001</v>
       </c>
       <c r="H17" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -1465,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="str">
-        <v>N4</v>
+        <v>V4</v>
       </c>
       <c r="E18" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MN4_Quote</v>
+        <v>HKDFUT1MV4_Quote</v>
       </c>
       <c r="F18" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MN4ConvAdj_Quote</v>
+        <v>HKDFUT1MV4ConvAdj_Quote</v>
       </c>
       <c r="G18" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F18,IborIndex,$D18,$E18,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV4ConvAdj_Quote#0001</v>
       </c>
       <c r="H18" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -1493,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="str">
-        <v>Q4</v>
+        <v>X4</v>
       </c>
       <c r="E19" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MQ4_Quote</v>
+        <v>HKDFUT1MX4_Quote</v>
       </c>
       <c r="F19" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MQ4ConvAdj_Quote</v>
+        <v>HKDFUT1MX4ConvAdj_Quote</v>
       </c>
       <c r="G19" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F19,IborIndex,$D19,$E19,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ4ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MX4ConvAdj_Quote#0001</v>
       </c>
       <c r="H19" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -1521,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>U4</v>
+        <v>Z4</v>
       </c>
       <c r="E20" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MU4_Quote</v>
+        <v>HKDFUT1MZ4_Quote</v>
       </c>
       <c r="F20" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MU4ConvAdj_Quote</v>
+        <v>HKDFUT1MZ4ConvAdj_Quote</v>
       </c>
       <c r="G20" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F20,IborIndex,$D20,$E20,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU4ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MZ4ConvAdj_Quote#0001</v>
       </c>
       <c r="H20" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -1549,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="str">
-        <v>V4</v>
+        <v>F5</v>
       </c>
       <c r="E21" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MV4_Quote</v>
+        <v>HKDFUT1MF5_Quote</v>
       </c>
       <c r="F21" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MV4ConvAdj_Quote</v>
+        <v>HKDFUT1MF5ConvAdj_Quote</v>
       </c>
       <c r="G21" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F21,IborIndex,$D21,$E21,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV4ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MF5ConvAdj_Quote#0001</v>
       </c>
       <c r="H21" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -1577,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="str">
-        <v>X4</v>
+        <v>G5</v>
       </c>
       <c r="E22" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MX4_Quote</v>
+        <v>HKDFUT1MG5_Quote</v>
       </c>
       <c r="F22" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MX4ConvAdj_Quote</v>
+        <v>HKDFUT1MG5ConvAdj_Quote</v>
       </c>
       <c r="G22" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F22,IborIndex,$D22,$E22,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG5ConvAdj_Quote#0001</v>
       </c>
       <c r="H22" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -1605,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="str">
-        <v>Z4</v>
+        <v>H5</v>
       </c>
       <c r="E23" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MZ4_Quote</v>
+        <v>HKDFUT1MH5_Quote</v>
       </c>
       <c r="F23" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MZ4ConvAdj_Quote</v>
+        <v>HKDFUT1MH5ConvAdj_Quote</v>
       </c>
       <c r="G23" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F23,IborIndex,$D23,$E23,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ4ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MH5ConvAdj_Quote#0001</v>
       </c>
       <c r="H23" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -1633,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="str">
-        <v>F5</v>
+        <v>J5</v>
       </c>
       <c r="E24" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MF5_Quote</v>
+        <v>HKDFUT1MJ5_Quote</v>
       </c>
       <c r="F24" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MF5ConvAdj_Quote</v>
+        <v>HKDFUT1MJ5ConvAdj_Quote</v>
       </c>
       <c r="G24" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F24,IborIndex,$D24,$E24,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ5ConvAdj_Quote#0001</v>
       </c>
       <c r="H24" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>G5</v>
+        <v>K5</v>
       </c>
       <c r="E25" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MG5_Quote</v>
+        <v>HKDFUT1MK5_Quote</v>
       </c>
       <c r="F25" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MG5ConvAdj_Quote</v>
+        <v>HKDFUT1MK5ConvAdj_Quote</v>
       </c>
       <c r="G25" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F25,IborIndex,$D25,$E25,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK5ConvAdj_Quote#0001</v>
       </c>
       <c r="H25" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -1689,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="str">
-        <v>H5</v>
+        <v>M5</v>
       </c>
       <c r="E26" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MH5_Quote</v>
+        <v>HKDFUT1MM5_Quote</v>
       </c>
       <c r="F26" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MH5ConvAdj_Quote</v>
+        <v>HKDFUT1MM5ConvAdj_Quote</v>
       </c>
       <c r="G26" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F26,IborIndex,$D26,$E26,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM5ConvAdj_Quote#0001</v>
       </c>
       <c r="H26" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -1717,19 +1717,19 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="str">
-        <v>J5</v>
+        <v>N5</v>
       </c>
       <c r="E27" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MJ5_Quote</v>
+        <v>HKDFUT1MN5_Quote</v>
       </c>
       <c r="F27" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MJ5ConvAdj_Quote</v>
+        <v>HKDFUT1MN5ConvAdj_Quote</v>
       </c>
       <c r="G27" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F27,IborIndex,$D27,$E27,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN5ConvAdj_Quote#0001</v>
       </c>
       <c r="H27" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -1745,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="str">
-        <v>K5</v>
+        <v>Q5</v>
       </c>
       <c r="E28" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MK5_Quote</v>
+        <v>HKDFUT1MQ5_Quote</v>
       </c>
       <c r="F28" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MK5ConvAdj_Quote</v>
+        <v>HKDFUT1MQ5ConvAdj_Quote</v>
       </c>
       <c r="G28" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F28,IborIndex,$D28,$E28,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ5ConvAdj_Quote#0001</v>
       </c>
       <c r="H28" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E29" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MM5_Quote</v>
+        <v>HKDFUT1MU5_Quote</v>
       </c>
       <c r="F29" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MM5ConvAdj_Quote</v>
+        <v>HKDFUT1MU5ConvAdj_Quote</v>
       </c>
       <c r="G29" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F29,IborIndex,$D29,$E29,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU5ConvAdj_Quote#0001</v>
       </c>
       <c r="H29" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -1801,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="str">
-        <v>N5</v>
+        <v>V5</v>
       </c>
       <c r="E30" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MN5_Quote</v>
+        <v>HKDFUT1MV5_Quote</v>
       </c>
       <c r="F30" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MN5ConvAdj_Quote</v>
+        <v>HKDFUT1MV5ConvAdj_Quote</v>
       </c>
       <c r="G30" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F30,IborIndex,$D30,$E30,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN5ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MV5ConvAdj_Quote#0001</v>
       </c>
       <c r="H30" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -1829,19 +1829,19 @@
         <v>0</v>
       </c>
       <c r="D31" s="1" t="str">
-        <v>Q5</v>
+        <v>X5</v>
       </c>
       <c r="E31" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MQ5_Quote</v>
+        <v>HKDFUT1MX5_Quote</v>
       </c>
       <c r="F31" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MQ5ConvAdj_Quote</v>
+        <v>HKDFUT1MX5ConvAdj_Quote</v>
       </c>
       <c r="G31" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F31,IborIndex,$D31,$E31,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX5ConvAdj_Quote#0001</v>
       </c>
       <c r="H31" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -1857,19 +1857,19 @@
         <v>0</v>
       </c>
       <c r="D32" s="1" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E32" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MU5_Quote</v>
+        <v>HKDFUT1MZ5_Quote</v>
       </c>
       <c r="F32" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MU5ConvAdj_Quote</v>
+        <v>HKDFUT1MZ5ConvAdj_Quote</v>
       </c>
       <c r="G32" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F32,IborIndex,$D32,$E32,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU5ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MZ5ConvAdj_Quote#0001</v>
       </c>
       <c r="H32" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -1885,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="str">
-        <v>V5</v>
+        <v>F6</v>
       </c>
       <c r="E33" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MV5_Quote</v>
+        <v>HKDFUT1MF6_Quote</v>
       </c>
       <c r="F33" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MV5ConvAdj_Quote</v>
+        <v>HKDFUT1MF6ConvAdj_Quote</v>
       </c>
       <c r="G33" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F33,IborIndex,$D33,$E33,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV5ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MF6ConvAdj_Quote#0001</v>
       </c>
       <c r="H33" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -1913,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="str">
-        <v>X5</v>
+        <v>G6</v>
       </c>
       <c r="E34" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MX5_Quote</v>
+        <v>HKDFUT1MG6_Quote</v>
       </c>
       <c r="F34" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MX5ConvAdj_Quote</v>
+        <v>HKDFUT1MG6ConvAdj_Quote</v>
       </c>
       <c r="G34" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F34,IborIndex,$D34,$E34,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG6ConvAdj_Quote#0001</v>
       </c>
       <c r="H34" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -1941,19 +1941,19 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E35" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MZ5_Quote</v>
+        <v>HKDFUT1MH6_Quote</v>
       </c>
       <c r="F35" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MZ5ConvAdj_Quote</v>
+        <v>HKDFUT1MH6ConvAdj_Quote</v>
       </c>
       <c r="G35" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F35,IborIndex,$D35,$E35,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH6ConvAdj_Quote#0001</v>
       </c>
       <c r="H35" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -1969,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="D36" s="1" t="str">
-        <v>F6</v>
+        <v>J6</v>
       </c>
       <c r="E36" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MF6_Quote</v>
+        <v>HKDFUT1MJ6_Quote</v>
       </c>
       <c r="F36" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MF6ConvAdj_Quote</v>
+        <v>HKDFUT1MJ6ConvAdj_Quote</v>
       </c>
       <c r="G36" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F36,IborIndex,$D36,$E36,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ6ConvAdj_Quote#0001</v>
       </c>
       <c r="H36" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -1997,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="D37" s="1" t="str">
-        <v>G6</v>
+        <v>K6</v>
       </c>
       <c r="E37" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MG6_Quote</v>
+        <v>HKDFUT1MK6_Quote</v>
       </c>
       <c r="F37" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MG6ConvAdj_Quote</v>
+        <v>HKDFUT1MK6ConvAdj_Quote</v>
       </c>
       <c r="G37" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F37,IborIndex,$D37,$E37,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK6ConvAdj_Quote#0001</v>
       </c>
       <c r="H37" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -2025,19 +2025,19 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E38" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MH6_Quote</v>
+        <v>HKDFUT1MM6_Quote</v>
       </c>
       <c r="F38" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MH6ConvAdj_Quote</v>
+        <v>HKDFUT1MM6ConvAdj_Quote</v>
       </c>
       <c r="G38" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F38,IborIndex,$D38,$E38,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM6ConvAdj_Quote#0001</v>
       </c>
       <c r="H38" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="D39" s="1" t="str">
-        <v>J6</v>
+        <v>N6</v>
       </c>
       <c r="E39" s="18" t="str">
         <f t="shared" ref="E39:E70" si="2">Currency&amp;"FUT"&amp;$G$4&amp;$D39&amp;QuoteSuffix</f>
-        <v>HKDFUT1MJ6_Quote</v>
+        <v>HKDFUT1MN6_Quote</v>
       </c>
       <c r="F39" s="19" t="str">
         <f t="shared" ref="F39:F70" si="3">Currency&amp;"FUT"&amp;$G$4&amp;$D39&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>HKDFUT1MJ6ConvAdj_Quote</v>
+        <v>HKDFUT1MN6ConvAdj_Quote</v>
       </c>
       <c r="G39" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F39,IborIndex,$D39,$E39,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ6ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MN6ConvAdj_Quote#0001</v>
       </c>
       <c r="H39" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -2081,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="D40" s="1" t="str">
-        <v>K6</v>
+        <v>Q6</v>
       </c>
       <c r="E40" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MK6_Quote</v>
+        <v>HKDFUT1MQ6_Quote</v>
       </c>
       <c r="F40" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MK6ConvAdj_Quote</v>
+        <v>HKDFUT1MQ6ConvAdj_Quote</v>
       </c>
       <c r="G40" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F40,IborIndex,$D40,$E40,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ6ConvAdj_Quote#0001</v>
       </c>
       <c r="H40" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -2109,19 +2109,19 @@
         <v>0</v>
       </c>
       <c r="D41" s="1" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E41" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MM6_Quote</v>
+        <v>HKDFUT1MU6_Quote</v>
       </c>
       <c r="F41" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MM6ConvAdj_Quote</v>
+        <v>HKDFUT1MU6ConvAdj_Quote</v>
       </c>
       <c r="G41" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F41,IborIndex,$D41,$E41,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU6ConvAdj_Quote#0001</v>
       </c>
       <c r="H41" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="D42" s="1" t="str">
-        <v>N6</v>
+        <v>V6</v>
       </c>
       <c r="E42" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MN6_Quote</v>
+        <v>HKDFUT1MV6_Quote</v>
       </c>
       <c r="F42" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MN6ConvAdj_Quote</v>
+        <v>HKDFUT1MV6ConvAdj_Quote</v>
       </c>
       <c r="G42" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F42,IborIndex,$D42,$E42,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN6ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MV6ConvAdj_Quote#0001</v>
       </c>
       <c r="H42" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -2165,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="str">
-        <v>Q6</v>
+        <v>X6</v>
       </c>
       <c r="E43" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MQ6_Quote</v>
+        <v>HKDFUT1MX6_Quote</v>
       </c>
       <c r="F43" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MQ6ConvAdj_Quote</v>
+        <v>HKDFUT1MX6ConvAdj_Quote</v>
       </c>
       <c r="G43" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F43,IborIndex,$D43,$E43,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ6ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MX6ConvAdj_Quote#0001</v>
       </c>
       <c r="H43" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -2193,19 +2193,19 @@
         <v>0</v>
       </c>
       <c r="D44" s="1" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E44" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MU6_Quote</v>
+        <v>HKDFUT1MZ6_Quote</v>
       </c>
       <c r="F44" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MU6ConvAdj_Quote</v>
+        <v>HKDFUT1MZ6ConvAdj_Quote</v>
       </c>
       <c r="G44" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F44,IborIndex,$D44,$E44,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ6ConvAdj_Quote#0001</v>
       </c>
       <c r="H44" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -2221,19 +2221,19 @@
         <v>0</v>
       </c>
       <c r="D45" s="1" t="str">
-        <v>V6</v>
+        <v>F7</v>
       </c>
       <c r="E45" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MV6_Quote</v>
+        <v>HKDFUT1MF7_Quote</v>
       </c>
       <c r="F45" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MV6ConvAdj_Quote</v>
+        <v>HKDFUT1MF7ConvAdj_Quote</v>
       </c>
       <c r="G45" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F45,IborIndex,$D45,$E45,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF7ConvAdj_Quote#0001</v>
       </c>
       <c r="H45" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -2249,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="str">
-        <v>X6</v>
+        <v>G7</v>
       </c>
       <c r="E46" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MX6_Quote</v>
+        <v>HKDFUT1MG7_Quote</v>
       </c>
       <c r="F46" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MX6ConvAdj_Quote</v>
+        <v>HKDFUT1MG7ConvAdj_Quote</v>
       </c>
       <c r="G46" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F46,IborIndex,$D46,$E46,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX6ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MG7ConvAdj_Quote#0001</v>
       </c>
       <c r="H46" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -2277,19 +2277,19 @@
         <v>0</v>
       </c>
       <c r="D47" s="1" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E47" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MZ6_Quote</v>
+        <v>HKDFUT1MH7_Quote</v>
       </c>
       <c r="F47" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MZ6ConvAdj_Quote</v>
+        <v>HKDFUT1MH7ConvAdj_Quote</v>
       </c>
       <c r="G47" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F47,IborIndex,$D47,$E47,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH7ConvAdj_Quote#0001</v>
       </c>
       <c r="H47" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -2305,19 +2305,19 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="str">
-        <v>F7</v>
+        <v>J7</v>
       </c>
       <c r="E48" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MF7_Quote</v>
+        <v>HKDFUT1MJ7_Quote</v>
       </c>
       <c r="F48" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MF7ConvAdj_Quote</v>
+        <v>HKDFUT1MJ7ConvAdj_Quote</v>
       </c>
       <c r="G48" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F48,IborIndex,$D48,$E48,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF7ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MJ7ConvAdj_Quote#0001</v>
       </c>
       <c r="H48" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -2333,19 +2333,19 @@
         <v>0</v>
       </c>
       <c r="D49" s="1" t="str">
-        <v>G7</v>
+        <v>K7</v>
       </c>
       <c r="E49" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MG7_Quote</v>
+        <v>HKDFUT1MK7_Quote</v>
       </c>
       <c r="F49" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MG7ConvAdj_Quote</v>
+        <v>HKDFUT1MK7ConvAdj_Quote</v>
       </c>
       <c r="G49" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F49,IborIndex,$D49,$E49,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG7ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MK7ConvAdj_Quote#0001</v>
       </c>
       <c r="H49" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="D50" s="1" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E50" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MH7_Quote</v>
+        <v>HKDFUT1MM7_Quote</v>
       </c>
       <c r="F50" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MH7ConvAdj_Quote</v>
+        <v>HKDFUT1MM7ConvAdj_Quote</v>
       </c>
       <c r="G50" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F50,IborIndex,$D50,$E50,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH7ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MM7ConvAdj_Quote#0001</v>
       </c>
       <c r="H50" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -2389,19 +2389,19 @@
         <v>0</v>
       </c>
       <c r="D51" s="1" t="str">
-        <v>J7</v>
+        <v>N7</v>
       </c>
       <c r="E51" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MJ7_Quote</v>
+        <v>HKDFUT1MN7_Quote</v>
       </c>
       <c r="F51" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MJ7ConvAdj_Quote</v>
+        <v>HKDFUT1MN7ConvAdj_Quote</v>
       </c>
       <c r="G51" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F51,IborIndex,$D51,$E51,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN7ConvAdj_Quote#0001</v>
       </c>
       <c r="H51" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -2417,19 +2417,19 @@
         <v>0</v>
       </c>
       <c r="D52" s="1" t="str">
-        <v>K7</v>
+        <v>Q7</v>
       </c>
       <c r="E52" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MK7_Quote</v>
+        <v>HKDFUT1MQ7_Quote</v>
       </c>
       <c r="F52" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MK7ConvAdj_Quote</v>
+        <v>HKDFUT1MQ7ConvAdj_Quote</v>
       </c>
       <c r="G52" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F52,IborIndex,$D52,$E52,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ7ConvAdj_Quote#0001</v>
       </c>
       <c r="H52" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -2445,19 +2445,19 @@
         <v>0</v>
       </c>
       <c r="D53" s="1" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E53" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MM7_Quote</v>
+        <v>HKDFUT1MU7_Quote</v>
       </c>
       <c r="F53" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MM7ConvAdj_Quote</v>
+        <v>HKDFUT1MU7ConvAdj_Quote</v>
       </c>
       <c r="G53" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F53,IborIndex,$D53,$E53,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU7ConvAdj_Quote#0001</v>
       </c>
       <c r="H53" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -2473,19 +2473,19 @@
         <v>0</v>
       </c>
       <c r="D54" s="1" t="str">
-        <v>N7</v>
+        <v>V7</v>
       </c>
       <c r="E54" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MN7_Quote</v>
+        <v>HKDFUT1MV7_Quote</v>
       </c>
       <c r="F54" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MN7ConvAdj_Quote</v>
+        <v>HKDFUT1MV7ConvAdj_Quote</v>
       </c>
       <c r="G54" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F54,IborIndex,$D54,$E54,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV7ConvAdj_Quote#0001</v>
       </c>
       <c r="H54" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -2501,19 +2501,19 @@
         <v>0</v>
       </c>
       <c r="D55" s="1" t="str">
-        <v>Q7</v>
+        <v>X7</v>
       </c>
       <c r="E55" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MQ7_Quote</v>
+        <v>HKDFUT1MX7_Quote</v>
       </c>
       <c r="F55" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MQ7ConvAdj_Quote</v>
+        <v>HKDFUT1MX7ConvAdj_Quote</v>
       </c>
       <c r="G55" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F55,IborIndex,$D55,$E55,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX7ConvAdj_Quote#0001</v>
       </c>
       <c r="H55" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="D56" s="1" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E56" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MU7_Quote</v>
+        <v>HKDFUT1MZ7_Quote</v>
       </c>
       <c r="F56" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MU7ConvAdj_Quote</v>
+        <v>HKDFUT1MZ7ConvAdj_Quote</v>
       </c>
       <c r="G56" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F56,IborIndex,$D56,$E56,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU7ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MZ7ConvAdj_Quote#0001</v>
       </c>
       <c r="H56" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="D57" s="1" t="str">
-        <v>V7</v>
+        <v>F8</v>
       </c>
       <c r="E57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MV7_Quote</v>
+        <v>HKDFUT1MF8_Quote</v>
       </c>
       <c r="F57" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MV7ConvAdj_Quote</v>
+        <v>HKDFUT1MF8ConvAdj_Quote</v>
       </c>
       <c r="G57" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F57,IborIndex,$D57,$E57,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV7ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MF8ConvAdj_Quote#0001</v>
       </c>
       <c r="H57" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -2585,19 +2585,19 @@
         <v>0</v>
       </c>
       <c r="D58" s="1" t="str">
-        <v>X7</v>
+        <v>G8</v>
       </c>
       <c r="E58" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MX7_Quote</v>
+        <v>HKDFUT1MG8_Quote</v>
       </c>
       <c r="F58" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MX7ConvAdj_Quote</v>
+        <v>HKDFUT1MG8ConvAdj_Quote</v>
       </c>
       <c r="G58" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F58,IborIndex,$D58,$E58,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG8ConvAdj_Quote#0001</v>
       </c>
       <c r="H58" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -2613,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="D59" s="1" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E59" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MZ7_Quote</v>
+        <v>HKDFUT1MH8_Quote</v>
       </c>
       <c r="F59" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MZ7ConvAdj_Quote</v>
+        <v>HKDFUT1MH8ConvAdj_Quote</v>
       </c>
       <c r="G59" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F59,IborIndex,$D59,$E59,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ7ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MH8ConvAdj_Quote#0001</v>
       </c>
       <c r="H59" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -2641,19 +2641,19 @@
         <v>0</v>
       </c>
       <c r="D60" s="1" t="str">
-        <v>F8</v>
+        <v>J8</v>
       </c>
       <c r="E60" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MF8_Quote</v>
+        <v>HKDFUT1MJ8_Quote</v>
       </c>
       <c r="F60" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MF8ConvAdj_Quote</v>
+        <v>HKDFUT1MJ8ConvAdj_Quote</v>
       </c>
       <c r="G60" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F60,IborIndex,$D60,$E60,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF8ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MJ8ConvAdj_Quote#0001</v>
       </c>
       <c r="H60" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -2669,19 +2669,19 @@
         <v>0</v>
       </c>
       <c r="D61" s="1" t="str">
-        <v>G8</v>
+        <v>K8</v>
       </c>
       <c r="E61" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MG8_Quote</v>
+        <v>HKDFUT1MK8_Quote</v>
       </c>
       <c r="F61" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MG8ConvAdj_Quote</v>
+        <v>HKDFUT1MK8ConvAdj_Quote</v>
       </c>
       <c r="G61" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F61,IborIndex,$D61,$E61,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK8ConvAdj_Quote#0001</v>
       </c>
       <c r="H61" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -2697,19 +2697,19 @@
         <v>0</v>
       </c>
       <c r="D62" s="1" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E62" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MH8_Quote</v>
+        <v>HKDFUT1MM8_Quote</v>
       </c>
       <c r="F62" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MH8ConvAdj_Quote</v>
+        <v>HKDFUT1MM8ConvAdj_Quote</v>
       </c>
       <c r="G62" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F62,IborIndex,$D62,$E62,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH8ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MM8ConvAdj_Quote#0001</v>
       </c>
       <c r="H62" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -2725,19 +2725,19 @@
         <v>0</v>
       </c>
       <c r="D63" s="1" t="str">
-        <v>J8</v>
+        <v>N8</v>
       </c>
       <c r="E63" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MJ8_Quote</v>
+        <v>HKDFUT1MN8_Quote</v>
       </c>
       <c r="F63" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MJ8ConvAdj_Quote</v>
+        <v>HKDFUT1MN8ConvAdj_Quote</v>
       </c>
       <c r="G63" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F63,IborIndex,$D63,$E63,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ8ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MN8ConvAdj_Quote#0001</v>
       </c>
       <c r="H63" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -2753,19 +2753,19 @@
         <v>0</v>
       </c>
       <c r="D64" s="1" t="str">
-        <v>K8</v>
+        <v>Q8</v>
       </c>
       <c r="E64" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MK8_Quote</v>
+        <v>HKDFUT1MQ8_Quote</v>
       </c>
       <c r="F64" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MK8ConvAdj_Quote</v>
+        <v>HKDFUT1MQ8ConvAdj_Quote</v>
       </c>
       <c r="G64" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F64,IborIndex,$D64,$E64,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ8ConvAdj_Quote#0001</v>
       </c>
       <c r="H64" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -2781,19 +2781,19 @@
         <v>0</v>
       </c>
       <c r="D65" s="1" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E65" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MM8_Quote</v>
+        <v>HKDFUT1MU8_Quote</v>
       </c>
       <c r="F65" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MM8ConvAdj_Quote</v>
+        <v>HKDFUT1MU8ConvAdj_Quote</v>
       </c>
       <c r="G65" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F65,IborIndex,$D65,$E65,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU8ConvAdj_Quote#0001</v>
       </c>
       <c r="H65" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -2809,19 +2809,19 @@
         <v>0</v>
       </c>
       <c r="D66" s="1" t="str">
-        <v>N8</v>
+        <v>V8</v>
       </c>
       <c r="E66" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MN8_Quote</v>
+        <v>HKDFUT1MV8_Quote</v>
       </c>
       <c r="F66" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MN8ConvAdj_Quote</v>
+        <v>HKDFUT1MV8ConvAdj_Quote</v>
       </c>
       <c r="G66" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F66,IborIndex,$D66,$E66,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN8ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MV8ConvAdj_Quote#0001</v>
       </c>
       <c r="H66" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="D67" s="1" t="str">
-        <v>Q8</v>
+        <v>X8</v>
       </c>
       <c r="E67" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MQ8_Quote</v>
+        <v>HKDFUT1MX8_Quote</v>
       </c>
       <c r="F67" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MQ8ConvAdj_Quote</v>
+        <v>HKDFUT1MX8ConvAdj_Quote</v>
       </c>
       <c r="G67" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F67,IborIndex,$D67,$E67,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ8ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MX8ConvAdj_Quote#0001</v>
       </c>
       <c r="H67" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G67)</f>
@@ -2865,19 +2865,19 @@
         <v>0</v>
       </c>
       <c r="D68" s="1" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E68" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MU8_Quote</v>
+        <v>HKDFUT1MZ8_Quote</v>
       </c>
       <c r="F68" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MU8ConvAdj_Quote</v>
+        <v>HKDFUT1MZ8ConvAdj_Quote</v>
       </c>
       <c r="G68" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F68,IborIndex,$D68,$E68,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ8ConvAdj_Quote#0001</v>
       </c>
       <c r="H68" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G68)</f>
@@ -2893,19 +2893,19 @@
         <v>0</v>
       </c>
       <c r="D69" s="1" t="str">
-        <v>V8</v>
+        <v>F9</v>
       </c>
       <c r="E69" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MV8_Quote</v>
+        <v>HKDFUT1MF9_Quote</v>
       </c>
       <c r="F69" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MV8ConvAdj_Quote</v>
+        <v>HKDFUT1MF9ConvAdj_Quote</v>
       </c>
       <c r="G69" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F69,IborIndex,$D69,$E69,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV8ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MF9ConvAdj_Quote#0001</v>
       </c>
       <c r="H69" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G69)</f>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="D70" s="1" t="str">
-        <v>X8</v>
+        <v>G9</v>
       </c>
       <c r="E70" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MX8_Quote</v>
+        <v>HKDFUT1MG9_Quote</v>
       </c>
       <c r="F70" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MX8ConvAdj_Quote</v>
+        <v>HKDFUT1MG9ConvAdj_Quote</v>
       </c>
       <c r="G70" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F70,IborIndex,$D70,$E70,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG9ConvAdj_Quote#0001</v>
       </c>
       <c r="H70" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G70)</f>
@@ -2949,19 +2949,19 @@
         <v>0</v>
       </c>
       <c r="D71" s="1" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E71" s="18" t="str">
         <f t="shared" ref="E71:E102" si="4">Currency&amp;"FUT"&amp;$G$4&amp;$D71&amp;QuoteSuffix</f>
-        <v>HKDFUT1MZ8_Quote</v>
+        <v>HKDFUT1MH9_Quote</v>
       </c>
       <c r="F71" s="19" t="str">
         <f t="shared" ref="F71:F102" si="5">Currency&amp;"FUT"&amp;$G$4&amp;$D71&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>HKDFUT1MZ8ConvAdj_Quote</v>
+        <v>HKDFUT1MH9ConvAdj_Quote</v>
       </c>
       <c r="G71" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F71,IborIndex,$D71,$E71,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH9ConvAdj_Quote#0001</v>
       </c>
       <c r="H71" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G71)</f>
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="D72" s="1" t="str">
-        <v>F9</v>
+        <v>J9</v>
       </c>
       <c r="E72" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MF9_Quote</v>
+        <v>HKDFUT1MJ9_Quote</v>
       </c>
       <c r="F72" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MF9ConvAdj_Quote</v>
+        <v>HKDFUT1MJ9ConvAdj_Quote</v>
       </c>
       <c r="G72" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F72,IborIndex,$D72,$E72,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ9ConvAdj_Quote#0001</v>
       </c>
       <c r="H72" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G72)</f>
@@ -3005,19 +3005,19 @@
         <v>0</v>
       </c>
       <c r="D73" s="1" t="str">
-        <v>G9</v>
+        <v>K9</v>
       </c>
       <c r="E73" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MG9_Quote</v>
+        <v>HKDFUT1MK9_Quote</v>
       </c>
       <c r="F73" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MG9ConvAdj_Quote</v>
+        <v>HKDFUT1MK9ConvAdj_Quote</v>
       </c>
       <c r="G73" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F73,IborIndex,$D73,$E73,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK9ConvAdj_Quote#0001</v>
       </c>
       <c r="H73" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G73)</f>
@@ -3033,19 +3033,19 @@
         <v>0</v>
       </c>
       <c r="D74" s="1" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E74" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MH9_Quote</v>
+        <v>HKDFUT1MM9_Quote</v>
       </c>
       <c r="F74" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MH9ConvAdj_Quote</v>
+        <v>HKDFUT1MM9ConvAdj_Quote</v>
       </c>
       <c r="G74" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F74,IborIndex,$D74,$E74,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH9ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MM9ConvAdj_Quote#0001</v>
       </c>
       <c r="H74" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G74)</f>
@@ -3061,19 +3061,19 @@
         <v>0</v>
       </c>
       <c r="D75" s="1" t="str">
-        <v>J9</v>
+        <v>N9</v>
       </c>
       <c r="E75" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MJ9_Quote</v>
+        <v>HKDFUT1MN9_Quote</v>
       </c>
       <c r="F75" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MJ9ConvAdj_Quote</v>
+        <v>HKDFUT1MN9ConvAdj_Quote</v>
       </c>
       <c r="G75" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F75,IborIndex,$D75,$E75,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN9ConvAdj_Quote#0001</v>
       </c>
       <c r="H75" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G75)</f>
@@ -3089,19 +3089,19 @@
         <v>0</v>
       </c>
       <c r="D76" s="1" t="str">
-        <v>K9</v>
+        <v>Q9</v>
       </c>
       <c r="E76" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MK9_Quote</v>
+        <v>HKDFUT1MQ9_Quote</v>
       </c>
       <c r="F76" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MK9ConvAdj_Quote</v>
+        <v>HKDFUT1MQ9ConvAdj_Quote</v>
       </c>
       <c r="G76" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F76,IborIndex,$D76,$E76,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK9ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MQ9ConvAdj_Quote#0001</v>
       </c>
       <c r="H76" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G76)</f>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="D77" s="1" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E77" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MM9_Quote</v>
+        <v>HKDFUT1MU9_Quote</v>
       </c>
       <c r="F77" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MM9ConvAdj_Quote</v>
+        <v>HKDFUT1MU9ConvAdj_Quote</v>
       </c>
       <c r="G77" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F77,IborIndex,$D77,$E77,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU9ConvAdj_Quote#0001</v>
       </c>
       <c r="H77" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G77)</f>
@@ -3145,19 +3145,19 @@
         <v>0</v>
       </c>
       <c r="D78" s="1" t="str">
-        <v>N9</v>
+        <v>V9</v>
       </c>
       <c r="E78" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MN9_Quote</v>
+        <v>HKDFUT1MV9_Quote</v>
       </c>
       <c r="F78" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MN9ConvAdj_Quote</v>
+        <v>HKDFUT1MV9ConvAdj_Quote</v>
       </c>
       <c r="G78" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F78,IborIndex,$D78,$E78,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV9ConvAdj_Quote#0001</v>
       </c>
       <c r="H78" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G78)</f>
@@ -3173,19 +3173,19 @@
         <v>0</v>
       </c>
       <c r="D79" s="1" t="str">
-        <v>Q9</v>
+        <v>X9</v>
       </c>
       <c r="E79" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MQ9_Quote</v>
+        <v>HKDFUT1MX9_Quote</v>
       </c>
       <c r="F79" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MQ9ConvAdj_Quote</v>
+        <v>HKDFUT1MX9ConvAdj_Quote</v>
       </c>
       <c r="G79" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F79,IborIndex,$D79,$E79,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX9ConvAdj_Quote#0001</v>
       </c>
       <c r="H79" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G79)</f>
@@ -3201,19 +3201,19 @@
         <v>0</v>
       </c>
       <c r="D80" s="1" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E80" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MU9_Quote</v>
+        <v>HKDFUT1MZ9_Quote</v>
       </c>
       <c r="F80" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MU9ConvAdj_Quote</v>
+        <v>HKDFUT1MZ9ConvAdj_Quote</v>
       </c>
       <c r="G80" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F80,IborIndex,$D80,$E80,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU9ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MZ9ConvAdj_Quote#0001</v>
       </c>
       <c r="H80" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G80)</f>
@@ -3229,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="D81" s="1" t="str">
-        <v>V9</v>
+        <v>F0</v>
       </c>
       <c r="E81" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MV9_Quote</v>
+        <v>HKDFUT1MF0_Quote</v>
       </c>
       <c r="F81" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MV9ConvAdj_Quote</v>
+        <v>HKDFUT1MF0ConvAdj_Quote</v>
       </c>
       <c r="G81" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F81,IborIndex,$D81,$E81,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF0ConvAdj_Quote#0001</v>
       </c>
       <c r="H81" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G81)</f>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="D82" s="1" t="str">
-        <v>X9</v>
+        <v>G0</v>
       </c>
       <c r="E82" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MX9_Quote</v>
+        <v>HKDFUT1MG0_Quote</v>
       </c>
       <c r="F82" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MX9ConvAdj_Quote</v>
+        <v>HKDFUT1MG0ConvAdj_Quote</v>
       </c>
       <c r="G82" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F82,IborIndex,$D82,$E82,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX9ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MG0ConvAdj_Quote#0001</v>
       </c>
       <c r="H82" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G82)</f>
@@ -3285,19 +3285,19 @@
         <v>0</v>
       </c>
       <c r="D83" s="1" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E83" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MZ9_Quote</v>
+        <v>HKDFUT1MH0_Quote</v>
       </c>
       <c r="F83" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MZ9ConvAdj_Quote</v>
+        <v>HKDFUT1MH0ConvAdj_Quote</v>
       </c>
       <c r="G83" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F83,IborIndex,$D83,$E83,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH0ConvAdj_Quote#0001</v>
       </c>
       <c r="H83" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G83)</f>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="D84" s="1" t="str">
-        <v>F0</v>
+        <v>J0</v>
       </c>
       <c r="E84" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MF0_Quote</v>
+        <v>HKDFUT1MJ0_Quote</v>
       </c>
       <c r="F84" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MF0ConvAdj_Quote</v>
+        <v>HKDFUT1MJ0ConvAdj_Quote</v>
       </c>
       <c r="G84" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F84,IborIndex,$D84,$E84,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ0ConvAdj_Quote#0001</v>
       </c>
       <c r="H84" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G84)</f>
@@ -3341,19 +3341,19 @@
         <v>0</v>
       </c>
       <c r="D85" s="1" t="str">
-        <v>G0</v>
+        <v>K0</v>
       </c>
       <c r="E85" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MG0_Quote</v>
+        <v>HKDFUT1MK0_Quote</v>
       </c>
       <c r="F85" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MG0ConvAdj_Quote</v>
+        <v>HKDFUT1MK0ConvAdj_Quote</v>
       </c>
       <c r="G85" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F85,IborIndex,$D85,$E85,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG0ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MK0ConvAdj_Quote#0001</v>
       </c>
       <c r="H85" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G85)</f>
@@ -3369,19 +3369,19 @@
         <v>0</v>
       </c>
       <c r="D86" s="1" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E86" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MH0_Quote</v>
+        <v>HKDFUT1MM0_Quote</v>
       </c>
       <c r="F86" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MH0ConvAdj_Quote</v>
+        <v>HKDFUT1MM0ConvAdj_Quote</v>
       </c>
       <c r="G86" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F86,IborIndex,$D86,$E86,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM0ConvAdj_Quote#0001</v>
       </c>
       <c r="H86" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G86)</f>
@@ -3397,19 +3397,19 @@
         <v>0</v>
       </c>
       <c r="D87" s="1" t="str">
-        <v>J0</v>
+        <v>N0</v>
       </c>
       <c r="E87" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MJ0_Quote</v>
+        <v>HKDFUT1MN0_Quote</v>
       </c>
       <c r="F87" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MJ0ConvAdj_Quote</v>
+        <v>HKDFUT1MN0ConvAdj_Quote</v>
       </c>
       <c r="G87" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F87,IborIndex,$D87,$E87,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN0ConvAdj_Quote#0001</v>
       </c>
       <c r="H87" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G87)</f>
@@ -3425,19 +3425,19 @@
         <v>0</v>
       </c>
       <c r="D88" s="1" t="str">
-        <v>K0</v>
+        <v>Q0</v>
       </c>
       <c r="E88" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MK0_Quote</v>
+        <v>HKDFUT1MQ0_Quote</v>
       </c>
       <c r="F88" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MK0ConvAdj_Quote</v>
+        <v>HKDFUT1MQ0ConvAdj_Quote</v>
       </c>
       <c r="G88" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F88,IborIndex,$D88,$E88,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK0ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MQ0ConvAdj_Quote#0001</v>
       </c>
       <c r="H88" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G88)</f>
@@ -3453,19 +3453,19 @@
         <v>0</v>
       </c>
       <c r="D89" s="1" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E89" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MM0_Quote</v>
+        <v>HKDFUT1MU0_Quote</v>
       </c>
       <c r="F89" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MM0ConvAdj_Quote</v>
+        <v>HKDFUT1MU0ConvAdj_Quote</v>
       </c>
       <c r="G89" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F89,IborIndex,$D89,$E89,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM0ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MU0ConvAdj_Quote#0001</v>
       </c>
       <c r="H89" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G89)</f>
@@ -3481,19 +3481,19 @@
         <v>0</v>
       </c>
       <c r="D90" s="1" t="str">
-        <v>N0</v>
+        <v>V0</v>
       </c>
       <c r="E90" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MN0_Quote</v>
+        <v>HKDFUT1MV0_Quote</v>
       </c>
       <c r="F90" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MN0ConvAdj_Quote</v>
+        <v>HKDFUT1MV0ConvAdj_Quote</v>
       </c>
       <c r="G90" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F90,IborIndex,$D90,$E90,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN0ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MV0ConvAdj_Quote#0001</v>
       </c>
       <c r="H90" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G90)</f>
@@ -3509,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="D91" s="1" t="str">
-        <v>Q0</v>
+        <v>X0</v>
       </c>
       <c r="E91" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MQ0_Quote</v>
+        <v>HKDFUT1MX0_Quote</v>
       </c>
       <c r="F91" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MQ0ConvAdj_Quote</v>
+        <v>HKDFUT1MX0ConvAdj_Quote</v>
       </c>
       <c r="G91" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F91,IborIndex,$D91,$E91,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX0ConvAdj_Quote#0001</v>
       </c>
       <c r="H91" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G91)</f>
@@ -3537,19 +3537,19 @@
         <v>0</v>
       </c>
       <c r="D92" s="1" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E92" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MU0_Quote</v>
+        <v>HKDFUT1MZ0_Quote</v>
       </c>
       <c r="F92" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MU0ConvAdj_Quote</v>
+        <v>HKDFUT1MZ0ConvAdj_Quote</v>
       </c>
       <c r="G92" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F92,IborIndex,$D92,$E92,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU0ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MZ0ConvAdj_Quote#0001</v>
       </c>
       <c r="H92" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G92)</f>
@@ -3565,19 +3565,19 @@
         <v>0</v>
       </c>
       <c r="D93" s="1" t="str">
-        <v>V0</v>
+        <v>F1</v>
       </c>
       <c r="E93" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MV0_Quote</v>
+        <v>HKDFUT1MF1_Quote</v>
       </c>
       <c r="F93" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MV0ConvAdj_Quote</v>
+        <v>HKDFUT1MF1ConvAdj_Quote</v>
       </c>
       <c r="G93" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F93,IborIndex,$D93,$E93,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF1ConvAdj_Quote#0001</v>
       </c>
       <c r="H93" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G93)</f>
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="D94" s="1" t="str">
-        <v>X0</v>
+        <v>G1</v>
       </c>
       <c r="E94" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MX0_Quote</v>
+        <v>HKDFUT1MG1_Quote</v>
       </c>
       <c r="F94" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MX0ConvAdj_Quote</v>
+        <v>HKDFUT1MG1ConvAdj_Quote</v>
       </c>
       <c r="G94" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F94,IborIndex,$D94,$E94,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG1ConvAdj_Quote#0001</v>
       </c>
       <c r="H94" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G94)</f>
@@ -3621,19 +3621,19 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E95" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MZ0_Quote</v>
+        <v>HKDFUT1MH1_Quote</v>
       </c>
       <c r="F95" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MZ0ConvAdj_Quote</v>
+        <v>HKDFUT1MH1ConvAdj_Quote</v>
       </c>
       <c r="G95" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F95,IborIndex,$D95,$E95,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH1ConvAdj_Quote#0001</v>
       </c>
       <c r="H95" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G95)</f>
@@ -3649,19 +3649,19 @@
         <v>0</v>
       </c>
       <c r="D96" s="1" t="str">
-        <v>F1</v>
+        <v>J1</v>
       </c>
       <c r="E96" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MF1_Quote</v>
+        <v>HKDFUT1MJ1_Quote</v>
       </c>
       <c r="F96" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MF1ConvAdj_Quote</v>
+        <v>HKDFUT1MJ1ConvAdj_Quote</v>
       </c>
       <c r="G96" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F96,IborIndex,$D96,$E96,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF1ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MJ1ConvAdj_Quote#0001</v>
       </c>
       <c r="H96" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G96)</f>
@@ -3677,19 +3677,19 @@
         <v>0</v>
       </c>
       <c r="D97" s="1" t="str">
-        <v>G1</v>
+        <v>K1</v>
       </c>
       <c r="E97" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MG1_Quote</v>
+        <v>HKDFUT1MK1_Quote</v>
       </c>
       <c r="F97" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MG1ConvAdj_Quote</v>
+        <v>HKDFUT1MK1ConvAdj_Quote</v>
       </c>
       <c r="G97" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F97,IborIndex,$D97,$E97,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG1ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MK1ConvAdj_Quote#0001</v>
       </c>
       <c r="H97" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G97)</f>
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="D98" s="1" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E98" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MH1_Quote</v>
+        <v>HKDFUT1MM1_Quote</v>
       </c>
       <c r="F98" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MH1ConvAdj_Quote</v>
+        <v>HKDFUT1MM1ConvAdj_Quote</v>
       </c>
       <c r="G98" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F98,IborIndex,$D98,$E98,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM1ConvAdj_Quote#0001</v>
       </c>
       <c r="H98" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G98)</f>
@@ -3733,19 +3733,19 @@
         <v>0</v>
       </c>
       <c r="D99" s="1" t="str">
-        <v>J1</v>
+        <v>N1</v>
       </c>
       <c r="E99" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MJ1_Quote</v>
+        <v>HKDFUT1MN1_Quote</v>
       </c>
       <c r="F99" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MJ1ConvAdj_Quote</v>
+        <v>HKDFUT1MN1ConvAdj_Quote</v>
       </c>
       <c r="G99" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F99,IborIndex,$D99,$E99,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN1ConvAdj_Quote#0001</v>
       </c>
       <c r="H99" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G99)</f>
@@ -3761,19 +3761,19 @@
         <v>0</v>
       </c>
       <c r="D100" s="1" t="str">
-        <v>K1</v>
+        <v>Q1</v>
       </c>
       <c r="E100" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MK1_Quote</v>
+        <v>HKDFUT1MQ1_Quote</v>
       </c>
       <c r="F100" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MK1ConvAdj_Quote</v>
+        <v>HKDFUT1MQ1ConvAdj_Quote</v>
       </c>
       <c r="G100" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F100,IborIndex,$D100,$E100,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ1ConvAdj_Quote#0001</v>
       </c>
       <c r="H100" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G100)</f>
@@ -3789,19 +3789,19 @@
         <v>0</v>
       </c>
       <c r="D101" s="1" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E101" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MM1_Quote</v>
+        <v>HKDFUT1MU1_Quote</v>
       </c>
       <c r="F101" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MM1ConvAdj_Quote</v>
+        <v>HKDFUT1MU1ConvAdj_Quote</v>
       </c>
       <c r="G101" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F101,IborIndex,$D101,$E101,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM1ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MU1ConvAdj_Quote#0001</v>
       </c>
       <c r="H101" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G101)</f>
@@ -3817,19 +3817,19 @@
         <v>0</v>
       </c>
       <c r="D102" s="1" t="str">
-        <v>N1</v>
+        <v>V1</v>
       </c>
       <c r="E102" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT1MN1_Quote</v>
+        <v>HKDFUT1MV1_Quote</v>
       </c>
       <c r="F102" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT1MN1ConvAdj_Quote</v>
+        <v>HKDFUT1MV1ConvAdj_Quote</v>
       </c>
       <c r="G102" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F102,IborIndex,$D102,$E102,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN1ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MV1ConvAdj_Quote#0001</v>
       </c>
       <c r="H102" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G102)</f>
@@ -3845,19 +3845,19 @@
         <v>0</v>
       </c>
       <c r="D103" s="1" t="str">
-        <v>Q1</v>
+        <v>X1</v>
       </c>
       <c r="E103" s="18" t="str">
         <f t="shared" ref="E103:E126" si="6">Currency&amp;"FUT"&amp;$G$4&amp;$D103&amp;QuoteSuffix</f>
-        <v>HKDFUT1MQ1_Quote</v>
+        <v>HKDFUT1MX1_Quote</v>
       </c>
       <c r="F103" s="19" t="str">
         <f t="shared" ref="F103:F126" si="7">Currency&amp;"FUT"&amp;$G$4&amp;$D103&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>HKDFUT1MQ1ConvAdj_Quote</v>
+        <v>HKDFUT1MX1ConvAdj_Quote</v>
       </c>
       <c r="G103" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F103,IborIndex,$D103,$E103,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX1ConvAdj_Quote#0001</v>
       </c>
       <c r="H103" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G103)</f>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="D104" s="1" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E104" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MU1_Quote</v>
+        <v>HKDFUT1MZ1_Quote</v>
       </c>
       <c r="F104" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MU1ConvAdj_Quote</v>
+        <v>HKDFUT1MZ1ConvAdj_Quote</v>
       </c>
       <c r="G104" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F104,IborIndex,$D104,$E104,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU1ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MZ1ConvAdj_Quote#0001</v>
       </c>
       <c r="H104" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G104)</f>
@@ -3901,19 +3901,19 @@
         <v>0</v>
       </c>
       <c r="D105" s="1" t="str">
-        <v>V1</v>
+        <v>F2</v>
       </c>
       <c r="E105" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MV1_Quote</v>
+        <v>HKDFUT1MF2_Quote</v>
       </c>
       <c r="F105" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MV1ConvAdj_Quote</v>
+        <v>HKDFUT1MF2ConvAdj_Quote</v>
       </c>
       <c r="G105" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F105,IborIndex,$D105,$E105,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV1ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MF2ConvAdj_Quote#0001</v>
       </c>
       <c r="H105" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G105)</f>
@@ -3929,19 +3929,19 @@
         <v>0</v>
       </c>
       <c r="D106" s="1" t="str">
-        <v>X1</v>
+        <v>G2</v>
       </c>
       <c r="E106" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MX1_Quote</v>
+        <v>HKDFUT1MG2_Quote</v>
       </c>
       <c r="F106" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MX1ConvAdj_Quote</v>
+        <v>HKDFUT1MG2ConvAdj_Quote</v>
       </c>
       <c r="G106" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F106,IborIndex,$D106,$E106,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX1ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MG2ConvAdj_Quote#0001</v>
       </c>
       <c r="H106" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G106)</f>
@@ -3957,19 +3957,19 @@
         <v>0</v>
       </c>
       <c r="D107" s="1" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E107" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MZ1_Quote</v>
+        <v>HKDFUT1MH2_Quote</v>
       </c>
       <c r="F107" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MZ1ConvAdj_Quote</v>
+        <v>HKDFUT1MH2ConvAdj_Quote</v>
       </c>
       <c r="G107" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F107,IborIndex,$D107,$E107,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ1ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MH2ConvAdj_Quote#0001</v>
       </c>
       <c r="H107" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G107)</f>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="D108" s="1" t="str">
-        <v>F2</v>
+        <v>J2</v>
       </c>
       <c r="E108" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MF2_Quote</v>
+        <v>HKDFUT1MJ2_Quote</v>
       </c>
       <c r="F108" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MF2ConvAdj_Quote</v>
+        <v>HKDFUT1MJ2ConvAdj_Quote</v>
       </c>
       <c r="G108" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F108,IborIndex,$D108,$E108,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF2ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MJ2ConvAdj_Quote#0001</v>
       </c>
       <c r="H108" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G108)</f>
@@ -4013,19 +4013,19 @@
         <v>0</v>
       </c>
       <c r="D109" s="1" t="str">
-        <v>G2</v>
+        <v>K2</v>
       </c>
       <c r="E109" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MG2_Quote</v>
+        <v>HKDFUT1MK2_Quote</v>
       </c>
       <c r="F109" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MG2ConvAdj_Quote</v>
+        <v>HKDFUT1MK2ConvAdj_Quote</v>
       </c>
       <c r="G109" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F109,IborIndex,$D109,$E109,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG2ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MK2ConvAdj_Quote#0001</v>
       </c>
       <c r="H109" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G109)</f>
@@ -4041,19 +4041,19 @@
         <v>0</v>
       </c>
       <c r="D110" s="1" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E110" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MH2_Quote</v>
+        <v>HKDFUT1MM2_Quote</v>
       </c>
       <c r="F110" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MH2ConvAdj_Quote</v>
+        <v>HKDFUT1MM2ConvAdj_Quote</v>
       </c>
       <c r="G110" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F110,IborIndex,$D110,$E110,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM2ConvAdj_Quote#0001</v>
       </c>
       <c r="H110" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G110)</f>
@@ -4069,19 +4069,19 @@
         <v>0</v>
       </c>
       <c r="D111" s="1" t="str">
-        <v>J2</v>
+        <v>N2</v>
       </c>
       <c r="E111" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MJ2_Quote</v>
+        <v>HKDFUT1MN2_Quote</v>
       </c>
       <c r="F111" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MJ2ConvAdj_Quote</v>
+        <v>HKDFUT1MN2ConvAdj_Quote</v>
       </c>
       <c r="G111" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F111,IborIndex,$D111,$E111,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN2ConvAdj_Quote#0001</v>
       </c>
       <c r="H111" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G111)</f>
@@ -4097,19 +4097,19 @@
         <v>0</v>
       </c>
       <c r="D112" s="1" t="str">
-        <v>K2</v>
+        <v>Q2</v>
       </c>
       <c r="E112" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MK2_Quote</v>
+        <v>HKDFUT1MQ2_Quote</v>
       </c>
       <c r="F112" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MK2ConvAdj_Quote</v>
+        <v>HKDFUT1MQ2ConvAdj_Quote</v>
       </c>
       <c r="G112" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F112,IborIndex,$D112,$E112,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ2ConvAdj_Quote#0001</v>
       </c>
       <c r="H112" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G112)</f>
@@ -4125,19 +4125,19 @@
         <v>0</v>
       </c>
       <c r="D113" s="1" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E113" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MM2_Quote</v>
+        <v>HKDFUT1MU2_Quote</v>
       </c>
       <c r="F113" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MM2ConvAdj_Quote</v>
+        <v>HKDFUT1MU2ConvAdj_Quote</v>
       </c>
       <c r="G113" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F113,IborIndex,$D113,$E113,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU2ConvAdj_Quote#0001</v>
       </c>
       <c r="H113" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G113)</f>
@@ -4153,19 +4153,19 @@
         <v>0</v>
       </c>
       <c r="D114" s="1" t="str">
-        <v>N2</v>
+        <v>V2</v>
       </c>
       <c r="E114" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MN2_Quote</v>
+        <v>HKDFUT1MV2_Quote</v>
       </c>
       <c r="F114" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MN2ConvAdj_Quote</v>
+        <v>HKDFUT1MV2ConvAdj_Quote</v>
       </c>
       <c r="G114" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F114,IborIndex,$D114,$E114,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV2ConvAdj_Quote#0001</v>
       </c>
       <c r="H114" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G114)</f>
@@ -4181,19 +4181,19 @@
         <v>0</v>
       </c>
       <c r="D115" s="1" t="str">
-        <v>Q2</v>
+        <v>X2</v>
       </c>
       <c r="E115" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MQ2_Quote</v>
+        <v>HKDFUT1MX2_Quote</v>
       </c>
       <c r="F115" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MQ2ConvAdj_Quote</v>
+        <v>HKDFUT1MX2ConvAdj_Quote</v>
       </c>
       <c r="G115" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F115,IborIndex,$D115,$E115,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX2ConvAdj_Quote#0001</v>
       </c>
       <c r="H115" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G115)</f>
@@ -4209,19 +4209,19 @@
         <v>0</v>
       </c>
       <c r="D116" s="1" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E116" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MU2_Quote</v>
+        <v>HKDFUT1MZ2_Quote</v>
       </c>
       <c r="F116" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MU2ConvAdj_Quote</v>
+        <v>HKDFUT1MZ2ConvAdj_Quote</v>
       </c>
       <c r="G116" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F116,IborIndex,$D116,$E116,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ2ConvAdj_Quote#0001</v>
       </c>
       <c r="H116" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G116)</f>
@@ -4237,19 +4237,19 @@
         <v>0</v>
       </c>
       <c r="D117" s="1" t="str">
-        <v>V2</v>
+        <v>F3</v>
       </c>
       <c r="E117" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MV2_Quote</v>
+        <v>HKDFUT1MF3_Quote</v>
       </c>
       <c r="F117" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MV2ConvAdj_Quote</v>
+        <v>HKDFUT1MF3ConvAdj_Quote</v>
       </c>
       <c r="G117" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F117,IborIndex,$D117,$E117,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV2ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MF3ConvAdj_Quote#0001</v>
       </c>
       <c r="H117" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G117)</f>
@@ -4265,19 +4265,19 @@
         <v>0</v>
       </c>
       <c r="D118" s="1" t="str">
-        <v>X2</v>
+        <v>G3</v>
       </c>
       <c r="E118" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MX2_Quote</v>
+        <v>HKDFUT1MG3_Quote</v>
       </c>
       <c r="F118" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MX2ConvAdj_Quote</v>
+        <v>HKDFUT1MG3ConvAdj_Quote</v>
       </c>
       <c r="G118" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F118,IborIndex,$D118,$E118,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX2ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MG3ConvAdj_Quote#0001</v>
       </c>
       <c r="H118" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G118)</f>
@@ -4293,19 +4293,19 @@
         <v>0</v>
       </c>
       <c r="D119" s="1" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E119" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MZ2_Quote</v>
+        <v>HKDFUT1MH3_Quote</v>
       </c>
       <c r="F119" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MZ2ConvAdj_Quote</v>
+        <v>HKDFUT1MH3ConvAdj_Quote</v>
       </c>
       <c r="G119" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F119,IborIndex,$D119,$E119,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH3ConvAdj_Quote#0001</v>
       </c>
       <c r="H119" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G119)</f>
@@ -4321,19 +4321,19 @@
         <v>0</v>
       </c>
       <c r="D120" s="1" t="str">
-        <v>F3</v>
+        <v>J3</v>
       </c>
       <c r="E120" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MF3_Quote</v>
+        <v>HKDFUT1MJ3_Quote</v>
       </c>
       <c r="F120" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MF3ConvAdj_Quote</v>
+        <v>HKDFUT1MJ3ConvAdj_Quote</v>
       </c>
       <c r="G120" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F120,IborIndex,$D120,$E120,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ3ConvAdj_Quote#0001</v>
       </c>
       <c r="H120" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G120)</f>
@@ -4349,19 +4349,19 @@
         <v>0</v>
       </c>
       <c r="D121" s="1" t="str">
-        <v>G3</v>
+        <v>K3</v>
       </c>
       <c r="E121" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MG3_Quote</v>
+        <v>HKDFUT1MK3_Quote</v>
       </c>
       <c r="F121" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MG3ConvAdj_Quote</v>
+        <v>HKDFUT1MK3ConvAdj_Quote</v>
       </c>
       <c r="G121" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F121,IborIndex,$D121,$E121,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK3ConvAdj_Quote#0001</v>
       </c>
       <c r="H121" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G121)</f>
@@ -4377,19 +4377,19 @@
         <v>0</v>
       </c>
       <c r="D122" s="1" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E122" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MH3_Quote</v>
+        <v>HKDFUT1MM3_Quote</v>
       </c>
       <c r="F122" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MH3ConvAdj_Quote</v>
+        <v>HKDFUT1MM3ConvAdj_Quote</v>
       </c>
       <c r="G122" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F122,IborIndex,$D122,$E122,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH3ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MM3ConvAdj_Quote#0001</v>
       </c>
       <c r="H122" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G122)</f>
@@ -4405,19 +4405,19 @@
         <v>0</v>
       </c>
       <c r="D123" s="1" t="str">
-        <v>J3</v>
+        <v>N3</v>
       </c>
       <c r="E123" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MJ3_Quote</v>
+        <v>HKDFUT1MN3_Quote</v>
       </c>
       <c r="F123" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MJ3ConvAdj_Quote</v>
+        <v>HKDFUT1MN3ConvAdj_Quote</v>
       </c>
       <c r="G123" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F123,IborIndex,$D123,$E123,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ3ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MN3ConvAdj_Quote#0001</v>
       </c>
       <c r="H123" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G123)</f>
@@ -4433,19 +4433,19 @@
         <v>0</v>
       </c>
       <c r="D124" s="1" t="str">
-        <v>K3</v>
+        <v>Q3</v>
       </c>
       <c r="E124" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MK3_Quote</v>
+        <v>HKDFUT1MQ3_Quote</v>
       </c>
       <c r="F124" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MK3ConvAdj_Quote</v>
+        <v>HKDFUT1MQ3ConvAdj_Quote</v>
       </c>
       <c r="G124" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F124,IborIndex,$D124,$E124,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK3ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MQ3ConvAdj_Quote#0001</v>
       </c>
       <c r="H124" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G124)</f>
@@ -4461,19 +4461,19 @@
         <v>0</v>
       </c>
       <c r="D125" s="1" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="E125" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MM3_Quote</v>
+        <v>HKDFUT1MU3_Quote</v>
       </c>
       <c r="F125" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MM3ConvAdj_Quote</v>
+        <v>HKDFUT1MU3ConvAdj_Quote</v>
       </c>
       <c r="G125" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F125,IborIndex,$D125,$E125,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM3ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MU3ConvAdj_Quote#0001</v>
       </c>
       <c r="H125" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G125)</f>
@@ -4489,19 +4489,19 @@
         <v>0</v>
       </c>
       <c r="D126" s="1" t="str">
-        <v>N3</v>
+        <v>V3</v>
       </c>
       <c r="E126" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT1MN3_Quote</v>
+        <v>HKDFUT1MV3_Quote</v>
       </c>
       <c r="F126" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT1MN3ConvAdj_Quote</v>
+        <v>HKDFUT1MV3ConvAdj_Quote</v>
       </c>
       <c r="G126" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F126,IborIndex,$D126,$E126,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN3ConvAdj_Quote#0000</v>
+        <v>HKDFUT1MV3ConvAdj_Quote#0001</v>
       </c>
       <c r="H126" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G126)</f>
@@ -4562,10 +4562,10 @@
       </c>
       <c r="F4" s="23" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$G$4</f>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
@@ -4605,19 +4605,19 @@
       </c>
       <c r="D7" s="17" t="str">
         <f t="array" ref="D7:D126">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C7:$C126)</f>
-        <v>Q3</v>
+        <v>X3</v>
       </c>
       <c r="E7" s="18" t="str">
         <f t="shared" ref="E7:E38" si="0">Currency&amp;"FUT"&amp;$G$4&amp;$D7&amp;QuoteSuffix</f>
-        <v>HKDFUT3MQ3_Quote</v>
+        <v>HKDFUT3MX3_Quote</v>
       </c>
       <c r="F7" s="19" t="str">
         <f t="shared" ref="F7:F38" si="1">Currency&amp;"FUT"&amp;$G$4&amp;$D7&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>HKDFUT3MQ3ConvAdj_Quote</v>
+        <v>HKDFUT3MX3ConvAdj_Quote</v>
       </c>
       <c r="G7" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F7,IborIndex,$D7,$E7,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ3ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MX3ConvAdj_Quote#0001</v>
       </c>
       <c r="H7" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -4633,19 +4633,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="E8" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MU3_Quote</v>
+        <v>HKDFUT3MZ3_Quote</v>
       </c>
       <c r="F8" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MU3ConvAdj_Quote</v>
+        <v>HKDFUT3MZ3ConvAdj_Quote</v>
       </c>
       <c r="G8" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F8,IborIndex,$D8,$E8,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ3ConvAdj_Quote#0001</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -4661,19 +4661,19 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>V3</v>
+        <v>F4</v>
       </c>
       <c r="E9" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MV3_Quote</v>
+        <v>HKDFUT3MF4_Quote</v>
       </c>
       <c r="F9" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MV3ConvAdj_Quote</v>
+        <v>HKDFUT3MF4ConvAdj_Quote</v>
       </c>
       <c r="G9" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F9,IborIndex,$D9,$E9,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF4ConvAdj_Quote#0001</v>
       </c>
       <c r="H9" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -4689,19 +4689,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="str">
-        <v>X3</v>
+        <v>G4</v>
       </c>
       <c r="E10" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MX3_Quote</v>
+        <v>HKDFUT3MG4_Quote</v>
       </c>
       <c r="F10" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MX3ConvAdj_Quote</v>
+        <v>HKDFUT3MG4ConvAdj_Quote</v>
       </c>
       <c r="G10" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F10,IborIndex,$D10,$E10,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX3ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MG4ConvAdj_Quote#0001</v>
       </c>
       <c r="H10" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -4717,19 +4717,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="str">
-        <v>Z3</v>
+        <v>H4</v>
       </c>
       <c r="E11" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MZ3_Quote</v>
+        <v>HKDFUT3MH4_Quote</v>
       </c>
       <c r="F11" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MZ3ConvAdj_Quote</v>
+        <v>HKDFUT3MH4ConvAdj_Quote</v>
       </c>
       <c r="G11" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F11,IborIndex,$D11,$E11,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH4ConvAdj_Quote#0001</v>
       </c>
       <c r="H11" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -4745,19 +4745,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="str">
-        <v>F4</v>
+        <v>J4</v>
       </c>
       <c r="E12" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MF4_Quote</v>
+        <v>HKDFUT3MJ4_Quote</v>
       </c>
       <c r="F12" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MF4ConvAdj_Quote</v>
+        <v>HKDFUT3MJ4ConvAdj_Quote</v>
       </c>
       <c r="G12" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F12,IborIndex,$D12,$E12,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF4ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MJ4ConvAdj_Quote#0001</v>
       </c>
       <c r="H12" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -4773,19 +4773,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="str">
-        <v>G4</v>
+        <v>K4</v>
       </c>
       <c r="E13" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MG4_Quote</v>
+        <v>HKDFUT3MK4_Quote</v>
       </c>
       <c r="F13" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MG4ConvAdj_Quote</v>
+        <v>HKDFUT3MK4ConvAdj_Quote</v>
       </c>
       <c r="G13" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F13,IborIndex,$D13,$E13,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG4ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MK4ConvAdj_Quote#0001</v>
       </c>
       <c r="H13" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -4801,19 +4801,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="str">
-        <v>H4</v>
+        <v>M4</v>
       </c>
       <c r="E14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MH4_Quote</v>
+        <v>HKDFUT3MM4_Quote</v>
       </c>
       <c r="F14" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MH4ConvAdj_Quote</v>
+        <v>HKDFUT3MM4ConvAdj_Quote</v>
       </c>
       <c r="G14" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F14,IborIndex,$D14,$E14,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM4ConvAdj_Quote#0001</v>
       </c>
       <c r="H14" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -4829,19 +4829,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>J4</v>
+        <v>N4</v>
       </c>
       <c r="E15" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MJ4_Quote</v>
+        <v>HKDFUT3MN4_Quote</v>
       </c>
       <c r="F15" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MJ4ConvAdj_Quote</v>
+        <v>HKDFUT3MN4ConvAdj_Quote</v>
       </c>
       <c r="G15" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F15,IborIndex,$D15,$E15,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ4ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MN4ConvAdj_Quote#0001</v>
       </c>
       <c r="H15" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -4857,19 +4857,19 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="str">
-        <v>K4</v>
+        <v>Q4</v>
       </c>
       <c r="E16" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MK4_Quote</v>
+        <v>HKDFUT3MQ4_Quote</v>
       </c>
       <c r="F16" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MK4ConvAdj_Quote</v>
+        <v>HKDFUT3MQ4ConvAdj_Quote</v>
       </c>
       <c r="G16" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F16,IborIndex,$D16,$E16,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ4ConvAdj_Quote#0001</v>
       </c>
       <c r="H16" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -4885,19 +4885,19 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="str">
-        <v>M4</v>
+        <v>U4</v>
       </c>
       <c r="E17" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MM4_Quote</v>
+        <v>HKDFUT3MU4_Quote</v>
       </c>
       <c r="F17" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MM4ConvAdj_Quote</v>
+        <v>HKDFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="G17" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F17,IborIndex,$D17,$E17,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU4ConvAdj_Quote#0001</v>
       </c>
       <c r="H17" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -4913,19 +4913,19 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="str">
-        <v>N4</v>
+        <v>V4</v>
       </c>
       <c r="E18" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MN4_Quote</v>
+        <v>HKDFUT3MV4_Quote</v>
       </c>
       <c r="F18" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MN4ConvAdj_Quote</v>
+        <v>HKDFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="G18" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F18,IborIndex,$D18,$E18,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN4ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MV4ConvAdj_Quote#0001</v>
       </c>
       <c r="H18" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -4941,19 +4941,19 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="str">
-        <v>Q4</v>
+        <v>X4</v>
       </c>
       <c r="E19" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MQ4_Quote</v>
+        <v>HKDFUT3MX4_Quote</v>
       </c>
       <c r="F19" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MQ4ConvAdj_Quote</v>
+        <v>HKDFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="G19" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F19,IborIndex,$D19,$E19,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ4ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MX4ConvAdj_Quote#0001</v>
       </c>
       <c r="H19" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -4969,19 +4969,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>U4</v>
+        <v>Z4</v>
       </c>
       <c r="E20" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MU4_Quote</v>
+        <v>HKDFUT3MZ4_Quote</v>
       </c>
       <c r="F20" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MU4ConvAdj_Quote</v>
+        <v>HKDFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="G20" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F20,IborIndex,$D20,$E20,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ4ConvAdj_Quote#0001</v>
       </c>
       <c r="H20" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -4997,19 +4997,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="str">
-        <v>V4</v>
+        <v>F5</v>
       </c>
       <c r="E21" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MV4_Quote</v>
+        <v>HKDFUT3MF5_Quote</v>
       </c>
       <c r="F21" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MV4ConvAdj_Quote</v>
+        <v>HKDFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="G21" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F21,IborIndex,$D21,$E21,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF5ConvAdj_Quote#0001</v>
       </c>
       <c r="H21" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -5025,19 +5025,19 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="str">
-        <v>X4</v>
+        <v>G5</v>
       </c>
       <c r="E22" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MX4_Quote</v>
+        <v>HKDFUT3MG5_Quote</v>
       </c>
       <c r="F22" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MX4ConvAdj_Quote</v>
+        <v>HKDFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="G22" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F22,IborIndex,$D22,$E22,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG5ConvAdj_Quote#0001</v>
       </c>
       <c r="H22" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -5053,19 +5053,19 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="str">
-        <v>Z4</v>
+        <v>H5</v>
       </c>
       <c r="E23" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MZ4_Quote</v>
+        <v>HKDFUT3MH5_Quote</v>
       </c>
       <c r="F23" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MZ4ConvAdj_Quote</v>
+        <v>HKDFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="G23" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F23,IborIndex,$D23,$E23,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH5ConvAdj_Quote#0001</v>
       </c>
       <c r="H23" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -5081,19 +5081,19 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="str">
-        <v>F5</v>
+        <v>J5</v>
       </c>
       <c r="E24" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MF5_Quote</v>
+        <v>HKDFUT3MJ5_Quote</v>
       </c>
       <c r="F24" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MF5ConvAdj_Quote</v>
+        <v>HKDFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="G24" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F24,IborIndex,$D24,$E24,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF5ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MJ5ConvAdj_Quote#0001</v>
       </c>
       <c r="H24" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -5109,19 +5109,19 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>G5</v>
+        <v>K5</v>
       </c>
       <c r="E25" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MG5_Quote</v>
+        <v>HKDFUT3MK5_Quote</v>
       </c>
       <c r="F25" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MG5ConvAdj_Quote</v>
+        <v>HKDFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="G25" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F25,IborIndex,$D25,$E25,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK5ConvAdj_Quote#0001</v>
       </c>
       <c r="H25" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="str">
-        <v>H5</v>
+        <v>M5</v>
       </c>
       <c r="E26" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MH5_Quote</v>
+        <v>HKDFUT3MM5_Quote</v>
       </c>
       <c r="F26" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MH5ConvAdj_Quote</v>
+        <v>HKDFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="G26" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F26,IborIndex,$D26,$E26,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM5ConvAdj_Quote#0001</v>
       </c>
       <c r="H26" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -5165,19 +5165,19 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="str">
-        <v>J5</v>
+        <v>N5</v>
       </c>
       <c r="E27" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MJ5_Quote</v>
+        <v>HKDFUT3MN5_Quote</v>
       </c>
       <c r="F27" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MJ5ConvAdj_Quote</v>
+        <v>HKDFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="G27" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F27,IborIndex,$D27,$E27,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN5ConvAdj_Quote#0001</v>
       </c>
       <c r="H27" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -5193,19 +5193,19 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="str">
-        <v>K5</v>
+        <v>Q5</v>
       </c>
       <c r="E28" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MK5_Quote</v>
+        <v>HKDFUT3MQ5_Quote</v>
       </c>
       <c r="F28" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MK5ConvAdj_Quote</v>
+        <v>HKDFUT3MQ5ConvAdj_Quote</v>
       </c>
       <c r="G28" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F28,IborIndex,$D28,$E28,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ5ConvAdj_Quote#0001</v>
       </c>
       <c r="H28" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -5221,19 +5221,19 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E29" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MM5_Quote</v>
+        <v>HKDFUT3MU5_Quote</v>
       </c>
       <c r="F29" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MM5ConvAdj_Quote</v>
+        <v>HKDFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="G29" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F29,IborIndex,$D29,$E29,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU5ConvAdj_Quote#0001</v>
       </c>
       <c r="H29" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -5249,19 +5249,19 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="str">
-        <v>N5</v>
+        <v>V5</v>
       </c>
       <c r="E30" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MN5_Quote</v>
+        <v>HKDFUT3MV5_Quote</v>
       </c>
       <c r="F30" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MN5ConvAdj_Quote</v>
+        <v>HKDFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="G30" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F30,IborIndex,$D30,$E30,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN5ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MV5ConvAdj_Quote#0001</v>
       </c>
       <c r="H30" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="D31" s="1" t="str">
-        <v>Q5</v>
+        <v>X5</v>
       </c>
       <c r="E31" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MQ5_Quote</v>
+        <v>HKDFUT3MX5_Quote</v>
       </c>
       <c r="F31" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MQ5ConvAdj_Quote</v>
+        <v>HKDFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="G31" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F31,IborIndex,$D31,$E31,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX5ConvAdj_Quote#0001</v>
       </c>
       <c r="H31" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -5305,19 +5305,19 @@
         <v>0</v>
       </c>
       <c r="D32" s="1" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E32" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MU5_Quote</v>
+        <v>HKDFUT3MZ5_Quote</v>
       </c>
       <c r="F32" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MU5ConvAdj_Quote</v>
+        <v>HKDFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="G32" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F32,IborIndex,$D32,$E32,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ5ConvAdj_Quote#0001</v>
       </c>
       <c r="H32" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -5333,19 +5333,19 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="str">
-        <v>V5</v>
+        <v>F6</v>
       </c>
       <c r="E33" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MV5_Quote</v>
+        <v>HKDFUT3MF6_Quote</v>
       </c>
       <c r="F33" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MV5ConvAdj_Quote</v>
+        <v>HKDFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="G33" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F33,IborIndex,$D33,$E33,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV5ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MF6ConvAdj_Quote#0001</v>
       </c>
       <c r="H33" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -5361,19 +5361,19 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="str">
-        <v>X5</v>
+        <v>G6</v>
       </c>
       <c r="E34" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MX5_Quote</v>
+        <v>HKDFUT3MG6_Quote</v>
       </c>
       <c r="F34" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MX5ConvAdj_Quote</v>
+        <v>HKDFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="G34" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F34,IborIndex,$D34,$E34,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX5ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MG6ConvAdj_Quote#0001</v>
       </c>
       <c r="H34" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -5389,19 +5389,19 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E35" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MZ5_Quote</v>
+        <v>HKDFUT3MH6_Quote</v>
       </c>
       <c r="F35" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MZ5ConvAdj_Quote</v>
+        <v>HKDFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="G35" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F35,IborIndex,$D35,$E35,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ5ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MH6ConvAdj_Quote#0001</v>
       </c>
       <c r="H35" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -5417,19 +5417,19 @@
         <v>0</v>
       </c>
       <c r="D36" s="1" t="str">
-        <v>F6</v>
+        <v>J6</v>
       </c>
       <c r="E36" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MF6_Quote</v>
+        <v>HKDFUT3MJ6_Quote</v>
       </c>
       <c r="F36" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MF6ConvAdj_Quote</v>
+        <v>HKDFUT3MJ6ConvAdj_Quote</v>
       </c>
       <c r="G36" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F36,IborIndex,$D36,$E36,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ6ConvAdj_Quote#0001</v>
       </c>
       <c r="H36" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -5445,19 +5445,19 @@
         <v>0</v>
       </c>
       <c r="D37" s="1" t="str">
-        <v>G6</v>
+        <v>K6</v>
       </c>
       <c r="E37" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MG6_Quote</v>
+        <v>HKDFUT3MK6_Quote</v>
       </c>
       <c r="F37" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MG6ConvAdj_Quote</v>
+        <v>HKDFUT3MK6ConvAdj_Quote</v>
       </c>
       <c r="G37" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F37,IborIndex,$D37,$E37,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG6ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MK6ConvAdj_Quote#0001</v>
       </c>
       <c r="H37" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -5473,19 +5473,19 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E38" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MH6_Quote</v>
+        <v>HKDFUT3MM6_Quote</v>
       </c>
       <c r="F38" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MH6ConvAdj_Quote</v>
+        <v>HKDFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="G38" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F38,IborIndex,$D38,$E38,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH6ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MM6ConvAdj_Quote#0001</v>
       </c>
       <c r="H38" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -5501,19 +5501,19 @@
         <v>0</v>
       </c>
       <c r="D39" s="1" t="str">
-        <v>J6</v>
+        <v>N6</v>
       </c>
       <c r="E39" s="18" t="str">
         <f t="shared" ref="E39:E70" si="2">Currency&amp;"FUT"&amp;$G$4&amp;$D39&amp;QuoteSuffix</f>
-        <v>HKDFUT3MJ6_Quote</v>
+        <v>HKDFUT3MN6_Quote</v>
       </c>
       <c r="F39" s="19" t="str">
         <f t="shared" ref="F39:F70" si="3">Currency&amp;"FUT"&amp;$G$4&amp;$D39&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>HKDFUT3MJ6ConvAdj_Quote</v>
+        <v>HKDFUT3MN6ConvAdj_Quote</v>
       </c>
       <c r="G39" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F39,IborIndex,$D39,$E39,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN6ConvAdj_Quote#0001</v>
       </c>
       <c r="H39" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -5529,19 +5529,19 @@
         <v>0</v>
       </c>
       <c r="D40" s="1" t="str">
-        <v>K6</v>
+        <v>Q6</v>
       </c>
       <c r="E40" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MK6_Quote</v>
+        <v>HKDFUT3MQ6_Quote</v>
       </c>
       <c r="F40" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MK6ConvAdj_Quote</v>
+        <v>HKDFUT3MQ6ConvAdj_Quote</v>
       </c>
       <c r="G40" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F40,IborIndex,$D40,$E40,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ6ConvAdj_Quote#0001</v>
       </c>
       <c r="H40" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="D41" s="1" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E41" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MM6_Quote</v>
+        <v>HKDFUT3MU6_Quote</v>
       </c>
       <c r="F41" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MM6ConvAdj_Quote</v>
+        <v>HKDFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="G41" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F41,IborIndex,$D41,$E41,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU6ConvAdj_Quote#0001</v>
       </c>
       <c r="H41" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -5585,19 +5585,19 @@
         <v>0</v>
       </c>
       <c r="D42" s="1" t="str">
-        <v>N6</v>
+        <v>V6</v>
       </c>
       <c r="E42" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MN6_Quote</v>
+        <v>HKDFUT3MV6_Quote</v>
       </c>
       <c r="F42" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MN6ConvAdj_Quote</v>
+        <v>HKDFUT3MV6ConvAdj_Quote</v>
       </c>
       <c r="G42" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F42,IborIndex,$D42,$E42,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN6ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MV6ConvAdj_Quote#0001</v>
       </c>
       <c r="H42" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -5613,19 +5613,19 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="str">
-        <v>Q6</v>
+        <v>X6</v>
       </c>
       <c r="E43" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MQ6_Quote</v>
+        <v>HKDFUT3MX6_Quote</v>
       </c>
       <c r="F43" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MQ6ConvAdj_Quote</v>
+        <v>HKDFUT3MX6ConvAdj_Quote</v>
       </c>
       <c r="G43" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F43,IborIndex,$D43,$E43,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX6ConvAdj_Quote#0001</v>
       </c>
       <c r="H43" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -5641,19 +5641,19 @@
         <v>0</v>
       </c>
       <c r="D44" s="1" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E44" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MU6_Quote</v>
+        <v>HKDFUT3MZ6_Quote</v>
       </c>
       <c r="F44" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MU6ConvAdj_Quote</v>
+        <v>HKDFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="G44" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F44,IborIndex,$D44,$E44,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ6ConvAdj_Quote#0001</v>
       </c>
       <c r="H44" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -5669,19 +5669,19 @@
         <v>0</v>
       </c>
       <c r="D45" s="1" t="str">
-        <v>V6</v>
+        <v>F7</v>
       </c>
       <c r="E45" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MV6_Quote</v>
+        <v>HKDFUT3MF7_Quote</v>
       </c>
       <c r="F45" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MV6ConvAdj_Quote</v>
+        <v>HKDFUT3MF7ConvAdj_Quote</v>
       </c>
       <c r="G45" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F45,IborIndex,$D45,$E45,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF7ConvAdj_Quote#0001</v>
       </c>
       <c r="H45" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -5697,19 +5697,19 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="str">
-        <v>X6</v>
+        <v>G7</v>
       </c>
       <c r="E46" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MX6_Quote</v>
+        <v>HKDFUT3MG7_Quote</v>
       </c>
       <c r="F46" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MX6ConvAdj_Quote</v>
+        <v>HKDFUT3MG7ConvAdj_Quote</v>
       </c>
       <c r="G46" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F46,IborIndex,$D46,$E46,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX6ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MG7ConvAdj_Quote#0001</v>
       </c>
       <c r="H46" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -5725,19 +5725,19 @@
         <v>0</v>
       </c>
       <c r="D47" s="1" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E47" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MZ6_Quote</v>
+        <v>HKDFUT3MH7_Quote</v>
       </c>
       <c r="F47" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MZ6ConvAdj_Quote</v>
+        <v>HKDFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="G47" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F47,IborIndex,$D47,$E47,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH7ConvAdj_Quote#0001</v>
       </c>
       <c r="H47" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -5753,19 +5753,19 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="str">
-        <v>F7</v>
+        <v>J7</v>
       </c>
       <c r="E48" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MF7_Quote</v>
+        <v>HKDFUT3MJ7_Quote</v>
       </c>
       <c r="F48" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MF7ConvAdj_Quote</v>
+        <v>HKDFUT3MJ7ConvAdj_Quote</v>
       </c>
       <c r="G48" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F48,IborIndex,$D48,$E48,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ7ConvAdj_Quote#0001</v>
       </c>
       <c r="H48" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -5781,19 +5781,19 @@
         <v>0</v>
       </c>
       <c r="D49" s="1" t="str">
-        <v>G7</v>
+        <v>K7</v>
       </c>
       <c r="E49" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MG7_Quote</v>
+        <v>HKDFUT3MK7_Quote</v>
       </c>
       <c r="F49" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MG7ConvAdj_Quote</v>
+        <v>HKDFUT3MK7ConvAdj_Quote</v>
       </c>
       <c r="G49" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F49,IborIndex,$D49,$E49,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG7ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MK7ConvAdj_Quote#0001</v>
       </c>
       <c r="H49" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -5809,19 +5809,19 @@
         <v>0</v>
       </c>
       <c r="D50" s="1" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E50" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MH7_Quote</v>
+        <v>HKDFUT3MM7_Quote</v>
       </c>
       <c r="F50" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MH7ConvAdj_Quote</v>
+        <v>HKDFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="G50" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F50,IborIndex,$D50,$E50,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH7ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MM7ConvAdj_Quote#0001</v>
       </c>
       <c r="H50" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -5837,19 +5837,19 @@
         <v>0</v>
       </c>
       <c r="D51" s="1" t="str">
-        <v>J7</v>
+        <v>N7</v>
       </c>
       <c r="E51" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MJ7_Quote</v>
+        <v>HKDFUT3MN7_Quote</v>
       </c>
       <c r="F51" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MJ7ConvAdj_Quote</v>
+        <v>HKDFUT3MN7ConvAdj_Quote</v>
       </c>
       <c r="G51" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F51,IborIndex,$D51,$E51,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN7ConvAdj_Quote#0001</v>
       </c>
       <c r="H51" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -5865,19 +5865,19 @@
         <v>0</v>
       </c>
       <c r="D52" s="1" t="str">
-        <v>K7</v>
+        <v>Q7</v>
       </c>
       <c r="E52" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MK7_Quote</v>
+        <v>HKDFUT3MQ7_Quote</v>
       </c>
       <c r="F52" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MK7ConvAdj_Quote</v>
+        <v>HKDFUT3MQ7ConvAdj_Quote</v>
       </c>
       <c r="G52" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F52,IborIndex,$D52,$E52,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK7ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MQ7ConvAdj_Quote#0001</v>
       </c>
       <c r="H52" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -5893,19 +5893,19 @@
         <v>0</v>
       </c>
       <c r="D53" s="1" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E53" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MM7_Quote</v>
+        <v>HKDFUT3MU7_Quote</v>
       </c>
       <c r="F53" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MM7ConvAdj_Quote</v>
+        <v>HKDFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="G53" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F53,IborIndex,$D53,$E53,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM7ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MU7ConvAdj_Quote#0001</v>
       </c>
       <c r="H53" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -5921,19 +5921,19 @@
         <v>0</v>
       </c>
       <c r="D54" s="1" t="str">
-        <v>N7</v>
+        <v>V7</v>
       </c>
       <c r="E54" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MN7_Quote</v>
+        <v>HKDFUT3MV7_Quote</v>
       </c>
       <c r="F54" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MN7ConvAdj_Quote</v>
+        <v>HKDFUT3MV7ConvAdj_Quote</v>
       </c>
       <c r="G54" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F54,IborIndex,$D54,$E54,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV7ConvAdj_Quote#0001</v>
       </c>
       <c r="H54" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -5949,19 +5949,19 @@
         <v>0</v>
       </c>
       <c r="D55" s="1" t="str">
-        <v>Q7</v>
+        <v>X7</v>
       </c>
       <c r="E55" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MQ7_Quote</v>
+        <v>HKDFUT3MX7_Quote</v>
       </c>
       <c r="F55" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MQ7ConvAdj_Quote</v>
+        <v>HKDFUT3MX7ConvAdj_Quote</v>
       </c>
       <c r="G55" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F55,IborIndex,$D55,$E55,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX7ConvAdj_Quote#0001</v>
       </c>
       <c r="H55" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -5977,19 +5977,19 @@
         <v>0</v>
       </c>
       <c r="D56" s="1" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E56" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MU7_Quote</v>
+        <v>HKDFUT3MZ7_Quote</v>
       </c>
       <c r="F56" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MU7ConvAdj_Quote</v>
+        <v>HKDFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="G56" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F56,IborIndex,$D56,$E56,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU7ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MZ7ConvAdj_Quote#0001</v>
       </c>
       <c r="H56" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -6005,19 +6005,19 @@
         <v>0</v>
       </c>
       <c r="D57" s="1" t="str">
-        <v>V7</v>
+        <v>F8</v>
       </c>
       <c r="E57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MV7_Quote</v>
+        <v>HKDFUT3MF8_Quote</v>
       </c>
       <c r="F57" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MV7ConvAdj_Quote</v>
+        <v>HKDFUT3MF8ConvAdj_Quote</v>
       </c>
       <c r="G57" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F57,IborIndex,$D57,$E57,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF8ConvAdj_Quote#0001</v>
       </c>
       <c r="H57" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -6033,19 +6033,19 @@
         <v>0</v>
       </c>
       <c r="D58" s="1" t="str">
-        <v>X7</v>
+        <v>G8</v>
       </c>
       <c r="E58" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MX7_Quote</v>
+        <v>HKDFUT3MG8_Quote</v>
       </c>
       <c r="F58" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MX7ConvAdj_Quote</v>
+        <v>HKDFUT3MG8ConvAdj_Quote</v>
       </c>
       <c r="G58" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F58,IborIndex,$D58,$E58,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX7ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MG8ConvAdj_Quote#0001</v>
       </c>
       <c r="H58" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -6061,19 +6061,19 @@
         <v>0</v>
       </c>
       <c r="D59" s="1" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E59" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MZ7_Quote</v>
+        <v>HKDFUT3MH8_Quote</v>
       </c>
       <c r="F59" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MZ7ConvAdj_Quote</v>
+        <v>HKDFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="G59" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F59,IborIndex,$D59,$E59,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH8ConvAdj_Quote#0001</v>
       </c>
       <c r="H59" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -6089,19 +6089,19 @@
         <v>0</v>
       </c>
       <c r="D60" s="1" t="str">
-        <v>F8</v>
+        <v>J8</v>
       </c>
       <c r="E60" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MF8_Quote</v>
+        <v>HKDFUT3MJ8_Quote</v>
       </c>
       <c r="F60" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MF8ConvAdj_Quote</v>
+        <v>HKDFUT3MJ8ConvAdj_Quote</v>
       </c>
       <c r="G60" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F60,IborIndex,$D60,$E60,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ8ConvAdj_Quote#0001</v>
       </c>
       <c r="H60" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -6117,19 +6117,19 @@
         <v>0</v>
       </c>
       <c r="D61" s="1" t="str">
-        <v>G8</v>
+        <v>K8</v>
       </c>
       <c r="E61" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MG8_Quote</v>
+        <v>HKDFUT3MK8_Quote</v>
       </c>
       <c r="F61" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MG8ConvAdj_Quote</v>
+        <v>HKDFUT3MK8ConvAdj_Quote</v>
       </c>
       <c r="G61" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F61,IborIndex,$D61,$E61,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK8ConvAdj_Quote#0001</v>
       </c>
       <c r="H61" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -6145,19 +6145,19 @@
         <v>0</v>
       </c>
       <c r="D62" s="1" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E62" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MH8_Quote</v>
+        <v>HKDFUT3MM8_Quote</v>
       </c>
       <c r="F62" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MH8ConvAdj_Quote</v>
+        <v>HKDFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="G62" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F62,IborIndex,$D62,$E62,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH8ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MM8ConvAdj_Quote#0001</v>
       </c>
       <c r="H62" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -6173,19 +6173,19 @@
         <v>0</v>
       </c>
       <c r="D63" s="1" t="str">
-        <v>J8</v>
+        <v>N8</v>
       </c>
       <c r="E63" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MJ8_Quote</v>
+        <v>HKDFUT3MN8_Quote</v>
       </c>
       <c r="F63" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MJ8ConvAdj_Quote</v>
+        <v>HKDFUT3MN8ConvAdj_Quote</v>
       </c>
       <c r="G63" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F63,IborIndex,$D63,$E63,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN8ConvAdj_Quote#0001</v>
       </c>
       <c r="H63" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -6201,19 +6201,19 @@
         <v>0</v>
       </c>
       <c r="D64" s="1" t="str">
-        <v>K8</v>
+        <v>Q8</v>
       </c>
       <c r="E64" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MK8_Quote</v>
+        <v>HKDFUT3MQ8_Quote</v>
       </c>
       <c r="F64" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MK8ConvAdj_Quote</v>
+        <v>HKDFUT3MQ8ConvAdj_Quote</v>
       </c>
       <c r="G64" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F64,IborIndex,$D64,$E64,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK8ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MQ8ConvAdj_Quote#0001</v>
       </c>
       <c r="H64" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -6229,19 +6229,19 @@
         <v>0</v>
       </c>
       <c r="D65" s="1" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E65" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MM8_Quote</v>
+        <v>HKDFUT3MU8_Quote</v>
       </c>
       <c r="F65" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MM8ConvAdj_Quote</v>
+        <v>HKDFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="G65" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F65,IborIndex,$D65,$E65,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU8ConvAdj_Quote#0001</v>
       </c>
       <c r="H65" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -6257,19 +6257,19 @@
         <v>0</v>
       </c>
       <c r="D66" s="1" t="str">
-        <v>N8</v>
+        <v>V8</v>
       </c>
       <c r="E66" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MN8_Quote</v>
+        <v>HKDFUT3MV8_Quote</v>
       </c>
       <c r="F66" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MN8ConvAdj_Quote</v>
+        <v>HKDFUT3MV8ConvAdj_Quote</v>
       </c>
       <c r="G66" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F66,IborIndex,$D66,$E66,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV8ConvAdj_Quote#0001</v>
       </c>
       <c r="H66" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
@@ -6285,19 +6285,19 @@
         <v>0</v>
       </c>
       <c r="D67" s="1" t="str">
-        <v>Q8</v>
+        <v>X8</v>
       </c>
       <c r="E67" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MQ8_Quote</v>
+        <v>HKDFUT3MX8_Quote</v>
       </c>
       <c r="F67" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MQ8ConvAdj_Quote</v>
+        <v>HKDFUT3MX8ConvAdj_Quote</v>
       </c>
       <c r="G67" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F67,IborIndex,$D67,$E67,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ8ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MX8ConvAdj_Quote#0001</v>
       </c>
       <c r="H67" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G67)</f>
@@ -6313,19 +6313,19 @@
         <v>0</v>
       </c>
       <c r="D68" s="1" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E68" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MU8_Quote</v>
+        <v>HKDFUT3MZ8_Quote</v>
       </c>
       <c r="F68" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MU8ConvAdj_Quote</v>
+        <v>HKDFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="G68" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F68,IborIndex,$D68,$E68,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ8ConvAdj_Quote#0001</v>
       </c>
       <c r="H68" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G68)</f>
@@ -6341,19 +6341,19 @@
         <v>0</v>
       </c>
       <c r="D69" s="1" t="str">
-        <v>V8</v>
+        <v>F9</v>
       </c>
       <c r="E69" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MV8_Quote</v>
+        <v>HKDFUT3MF9_Quote</v>
       </c>
       <c r="F69" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MV8ConvAdj_Quote</v>
+        <v>HKDFUT3MF9ConvAdj_Quote</v>
       </c>
       <c r="G69" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F69,IborIndex,$D69,$E69,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF9ConvAdj_Quote#0001</v>
       </c>
       <c r="H69" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G69)</f>
@@ -6369,19 +6369,19 @@
         <v>0</v>
       </c>
       <c r="D70" s="1" t="str">
-        <v>X8</v>
+        <v>G9</v>
       </c>
       <c r="E70" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MX8_Quote</v>
+        <v>HKDFUT3MG9_Quote</v>
       </c>
       <c r="F70" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MX8ConvAdj_Quote</v>
+        <v>HKDFUT3MG9ConvAdj_Quote</v>
       </c>
       <c r="G70" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F70,IborIndex,$D70,$E70,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG9ConvAdj_Quote#0001</v>
       </c>
       <c r="H70" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G70)</f>
@@ -6397,19 +6397,19 @@
         <v>0</v>
       </c>
       <c r="D71" s="1" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E71" s="18" t="str">
         <f t="shared" ref="E71:E102" si="4">Currency&amp;"FUT"&amp;$G$4&amp;$D71&amp;QuoteSuffix</f>
-        <v>HKDFUT3MZ8_Quote</v>
+        <v>HKDFUT3MH9_Quote</v>
       </c>
       <c r="F71" s="19" t="str">
         <f t="shared" ref="F71:F102" si="5">Currency&amp;"FUT"&amp;$G$4&amp;$D71&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>HKDFUT3MZ8ConvAdj_Quote</v>
+        <v>HKDFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="G71" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F71,IborIndex,$D71,$E71,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH9ConvAdj_Quote#0001</v>
       </c>
       <c r="H71" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G71)</f>
@@ -6425,19 +6425,19 @@
         <v>0</v>
       </c>
       <c r="D72" s="1" t="str">
-        <v>F9</v>
+        <v>J9</v>
       </c>
       <c r="E72" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MF9_Quote</v>
+        <v>HKDFUT3MJ9_Quote</v>
       </c>
       <c r="F72" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MF9ConvAdj_Quote</v>
+        <v>HKDFUT3MJ9ConvAdj_Quote</v>
       </c>
       <c r="G72" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F72,IborIndex,$D72,$E72,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ9ConvAdj_Quote#0001</v>
       </c>
       <c r="H72" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G72)</f>
@@ -6453,19 +6453,19 @@
         <v>0</v>
       </c>
       <c r="D73" s="1" t="str">
-        <v>G9</v>
+        <v>K9</v>
       </c>
       <c r="E73" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MG9_Quote</v>
+        <v>HKDFUT3MK9_Quote</v>
       </c>
       <c r="F73" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MG9ConvAdj_Quote</v>
+        <v>HKDFUT3MK9ConvAdj_Quote</v>
       </c>
       <c r="G73" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F73,IborIndex,$D73,$E73,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG9ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MK9ConvAdj_Quote#0001</v>
       </c>
       <c r="H73" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G73)</f>
@@ -6481,19 +6481,19 @@
         <v>0</v>
       </c>
       <c r="D74" s="1" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E74" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MH9_Quote</v>
+        <v>HKDFUT3MM9_Quote</v>
       </c>
       <c r="F74" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MH9ConvAdj_Quote</v>
+        <v>HKDFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="G74" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F74,IborIndex,$D74,$E74,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH9ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MM9ConvAdj_Quote#0001</v>
       </c>
       <c r="H74" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G74)</f>
@@ -6509,19 +6509,19 @@
         <v>0</v>
       </c>
       <c r="D75" s="1" t="str">
-        <v>J9</v>
+        <v>N9</v>
       </c>
       <c r="E75" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MJ9_Quote</v>
+        <v>HKDFUT3MN9_Quote</v>
       </c>
       <c r="F75" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MJ9ConvAdj_Quote</v>
+        <v>HKDFUT3MN9ConvAdj_Quote</v>
       </c>
       <c r="G75" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F75,IborIndex,$D75,$E75,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN9ConvAdj_Quote#0001</v>
       </c>
       <c r="H75" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G75)</f>
@@ -6537,19 +6537,19 @@
         <v>0</v>
       </c>
       <c r="D76" s="1" t="str">
-        <v>K9</v>
+        <v>Q9</v>
       </c>
       <c r="E76" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MK9_Quote</v>
+        <v>HKDFUT3MQ9_Quote</v>
       </c>
       <c r="F76" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MK9ConvAdj_Quote</v>
+        <v>HKDFUT3MQ9ConvAdj_Quote</v>
       </c>
       <c r="G76" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F76,IborIndex,$D76,$E76,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ9ConvAdj_Quote#0001</v>
       </c>
       <c r="H76" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G76)</f>
@@ -6565,19 +6565,19 @@
         <v>0</v>
       </c>
       <c r="D77" s="1" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E77" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MM9_Quote</v>
+        <v>HKDFUT3MU9_Quote</v>
       </c>
       <c r="F77" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MM9ConvAdj_Quote</v>
+        <v>HKDFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="G77" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F77,IborIndex,$D77,$E77,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU9ConvAdj_Quote#0001</v>
       </c>
       <c r="H77" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G77)</f>
@@ -6593,19 +6593,19 @@
         <v>0</v>
       </c>
       <c r="D78" s="1" t="str">
-        <v>N9</v>
+        <v>V9</v>
       </c>
       <c r="E78" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MN9_Quote</v>
+        <v>HKDFUT3MV9_Quote</v>
       </c>
       <c r="F78" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MN9ConvAdj_Quote</v>
+        <v>HKDFUT3MV9ConvAdj_Quote</v>
       </c>
       <c r="G78" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F78,IborIndex,$D78,$E78,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV9ConvAdj_Quote#0001</v>
       </c>
       <c r="H78" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G78)</f>
@@ -6621,19 +6621,19 @@
         <v>0</v>
       </c>
       <c r="D79" s="1" t="str">
-        <v>Q9</v>
+        <v>X9</v>
       </c>
       <c r="E79" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MQ9_Quote</v>
+        <v>HKDFUT3MX9_Quote</v>
       </c>
       <c r="F79" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MQ9ConvAdj_Quote</v>
+        <v>HKDFUT3MX9ConvAdj_Quote</v>
       </c>
       <c r="G79" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F79,IborIndex,$D79,$E79,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ9ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MX9ConvAdj_Quote#0001</v>
       </c>
       <c r="H79" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G79)</f>
@@ -6649,19 +6649,19 @@
         <v>0</v>
       </c>
       <c r="D80" s="1" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E80" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MU9_Quote</v>
+        <v>HKDFUT3MZ9_Quote</v>
       </c>
       <c r="F80" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MU9ConvAdj_Quote</v>
+        <v>HKDFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="G80" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F80,IborIndex,$D80,$E80,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU9ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MZ9ConvAdj_Quote#0001</v>
       </c>
       <c r="H80" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G80)</f>
@@ -6677,19 +6677,19 @@
         <v>0</v>
       </c>
       <c r="D81" s="1" t="str">
-        <v>V9</v>
+        <v>F0</v>
       </c>
       <c r="E81" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MV9_Quote</v>
+        <v>HKDFUT3MF0_Quote</v>
       </c>
       <c r="F81" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MV9ConvAdj_Quote</v>
+        <v>HKDFUT3MF0ConvAdj_Quote</v>
       </c>
       <c r="G81" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F81,IborIndex,$D81,$E81,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF0ConvAdj_Quote#0001</v>
       </c>
       <c r="H81" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G81)</f>
@@ -6705,19 +6705,19 @@
         <v>0</v>
       </c>
       <c r="D82" s="1" t="str">
-        <v>X9</v>
+        <v>G0</v>
       </c>
       <c r="E82" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MX9_Quote</v>
+        <v>HKDFUT3MG0_Quote</v>
       </c>
       <c r="F82" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MX9ConvAdj_Quote</v>
+        <v>HKDFUT3MG0ConvAdj_Quote</v>
       </c>
       <c r="G82" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F82,IborIndex,$D82,$E82,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG0ConvAdj_Quote#0001</v>
       </c>
       <c r="H82" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G82)</f>
@@ -6733,19 +6733,19 @@
         <v>0</v>
       </c>
       <c r="D83" s="1" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E83" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MZ9_Quote</v>
+        <v>HKDFUT3MH0_Quote</v>
       </c>
       <c r="F83" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MZ9ConvAdj_Quote</v>
+        <v>HKDFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="G83" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F83,IborIndex,$D83,$E83,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ9ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MH0ConvAdj_Quote#0001</v>
       </c>
       <c r="H83" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G83)</f>
@@ -6761,19 +6761,19 @@
         <v>0</v>
       </c>
       <c r="D84" s="1" t="str">
-        <v>F0</v>
+        <v>J0</v>
       </c>
       <c r="E84" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MF0_Quote</v>
+        <v>HKDFUT3MJ0_Quote</v>
       </c>
       <c r="F84" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MF0ConvAdj_Quote</v>
+        <v>HKDFUT3MJ0ConvAdj_Quote</v>
       </c>
       <c r="G84" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F84,IborIndex,$D84,$E84,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF0ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MJ0ConvAdj_Quote#0001</v>
       </c>
       <c r="H84" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G84)</f>
@@ -6789,19 +6789,19 @@
         <v>0</v>
       </c>
       <c r="D85" s="1" t="str">
-        <v>G0</v>
+        <v>K0</v>
       </c>
       <c r="E85" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MG0_Quote</v>
+        <v>HKDFUT3MK0_Quote</v>
       </c>
       <c r="F85" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MG0ConvAdj_Quote</v>
+        <v>HKDFUT3MK0ConvAdj_Quote</v>
       </c>
       <c r="G85" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F85,IborIndex,$D85,$E85,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG0ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MK0ConvAdj_Quote#0001</v>
       </c>
       <c r="H85" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G85)</f>
@@ -6817,19 +6817,19 @@
         <v>0</v>
       </c>
       <c r="D86" s="1" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E86" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MH0_Quote</v>
+        <v>HKDFUT3MM0_Quote</v>
       </c>
       <c r="F86" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MH0ConvAdj_Quote</v>
+        <v>HKDFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="G86" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F86,IborIndex,$D86,$E86,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM0ConvAdj_Quote#0001</v>
       </c>
       <c r="H86" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G86)</f>
@@ -6845,19 +6845,19 @@
         <v>0</v>
       </c>
       <c r="D87" s="1" t="str">
-        <v>J0</v>
+        <v>N0</v>
       </c>
       <c r="E87" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MJ0_Quote</v>
+        <v>HKDFUT3MN0_Quote</v>
       </c>
       <c r="F87" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MJ0ConvAdj_Quote</v>
+        <v>HKDFUT3MN0ConvAdj_Quote</v>
       </c>
       <c r="G87" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F87,IborIndex,$D87,$E87,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ0ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MN0ConvAdj_Quote#0001</v>
       </c>
       <c r="H87" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G87)</f>
@@ -6873,19 +6873,19 @@
         <v>0</v>
       </c>
       <c r="D88" s="1" t="str">
-        <v>K0</v>
+        <v>Q0</v>
       </c>
       <c r="E88" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MK0_Quote</v>
+        <v>HKDFUT3MQ0_Quote</v>
       </c>
       <c r="F88" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MK0ConvAdj_Quote</v>
+        <v>HKDFUT3MQ0ConvAdj_Quote</v>
       </c>
       <c r="G88" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F88,IborIndex,$D88,$E88,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK0ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MQ0ConvAdj_Quote#0001</v>
       </c>
       <c r="H88" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G88)</f>
@@ -6901,19 +6901,19 @@
         <v>0</v>
       </c>
       <c r="D89" s="1" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E89" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MM0_Quote</v>
+        <v>HKDFUT3MU0_Quote</v>
       </c>
       <c r="F89" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MM0ConvAdj_Quote</v>
+        <v>HKDFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="G89" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F89,IborIndex,$D89,$E89,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU0ConvAdj_Quote#0001</v>
       </c>
       <c r="H89" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G89)</f>
@@ -6929,19 +6929,19 @@
         <v>0</v>
       </c>
       <c r="D90" s="1" t="str">
-        <v>N0</v>
+        <v>V0</v>
       </c>
       <c r="E90" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MN0_Quote</v>
+        <v>HKDFUT3MV0_Quote</v>
       </c>
       <c r="F90" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MN0ConvAdj_Quote</v>
+        <v>HKDFUT3MV0ConvAdj_Quote</v>
       </c>
       <c r="G90" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F90,IborIndex,$D90,$E90,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN0ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MV0ConvAdj_Quote#0001</v>
       </c>
       <c r="H90" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G90)</f>
@@ -6957,19 +6957,19 @@
         <v>0</v>
       </c>
       <c r="D91" s="1" t="str">
-        <v>Q0</v>
+        <v>X0</v>
       </c>
       <c r="E91" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MQ0_Quote</v>
+        <v>HKDFUT3MX0_Quote</v>
       </c>
       <c r="F91" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MQ0ConvAdj_Quote</v>
+        <v>HKDFUT3MX0ConvAdj_Quote</v>
       </c>
       <c r="G91" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F91,IborIndex,$D91,$E91,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX0ConvAdj_Quote#0001</v>
       </c>
       <c r="H91" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G91)</f>
@@ -6985,19 +6985,19 @@
         <v>0</v>
       </c>
       <c r="D92" s="1" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E92" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MU0_Quote</v>
+        <v>HKDFUT3MZ0_Quote</v>
       </c>
       <c r="F92" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MU0ConvAdj_Quote</v>
+        <v>HKDFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="G92" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F92,IborIndex,$D92,$E92,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU0ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MZ0ConvAdj_Quote#0001</v>
       </c>
       <c r="H92" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G92)</f>
@@ -7013,19 +7013,19 @@
         <v>0</v>
       </c>
       <c r="D93" s="1" t="str">
-        <v>V0</v>
+        <v>F1</v>
       </c>
       <c r="E93" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MV0_Quote</v>
+        <v>HKDFUT3MF1_Quote</v>
       </c>
       <c r="F93" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MV0ConvAdj_Quote</v>
+        <v>HKDFUT3MF1ConvAdj_Quote</v>
       </c>
       <c r="G93" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F93,IborIndex,$D93,$E93,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF1ConvAdj_Quote#0001</v>
       </c>
       <c r="H93" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G93)</f>
@@ -7041,19 +7041,19 @@
         <v>0</v>
       </c>
       <c r="D94" s="1" t="str">
-        <v>X0</v>
+        <v>G1</v>
       </c>
       <c r="E94" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MX0_Quote</v>
+        <v>HKDFUT3MG1_Quote</v>
       </c>
       <c r="F94" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MX0ConvAdj_Quote</v>
+        <v>HKDFUT3MG1ConvAdj_Quote</v>
       </c>
       <c r="G94" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F94,IborIndex,$D94,$E94,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG1ConvAdj_Quote#0001</v>
       </c>
       <c r="H94" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G94)</f>
@@ -7069,19 +7069,19 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E95" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MZ0_Quote</v>
+        <v>HKDFUT3MH1_Quote</v>
       </c>
       <c r="F95" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MZ0ConvAdj_Quote</v>
+        <v>HKDFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="G95" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F95,IborIndex,$D95,$E95,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ0ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MH1ConvAdj_Quote#0001</v>
       </c>
       <c r="H95" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G95)</f>
@@ -7097,19 +7097,19 @@
         <v>0</v>
       </c>
       <c r="D96" s="1" t="str">
-        <v>F1</v>
+        <v>J1</v>
       </c>
       <c r="E96" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MF1_Quote</v>
+        <v>HKDFUT3MJ1_Quote</v>
       </c>
       <c r="F96" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MF1ConvAdj_Quote</v>
+        <v>HKDFUT3MJ1ConvAdj_Quote</v>
       </c>
       <c r="G96" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F96,IborIndex,$D96,$E96,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ1ConvAdj_Quote#0001</v>
       </c>
       <c r="H96" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G96)</f>
@@ -7125,19 +7125,19 @@
         <v>0</v>
       </c>
       <c r="D97" s="1" t="str">
-        <v>G1</v>
+        <v>K1</v>
       </c>
       <c r="E97" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MG1_Quote</v>
+        <v>HKDFUT3MK1_Quote</v>
       </c>
       <c r="F97" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MG1ConvAdj_Quote</v>
+        <v>HKDFUT3MK1ConvAdj_Quote</v>
       </c>
       <c r="G97" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F97,IborIndex,$D97,$E97,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG1ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MK1ConvAdj_Quote#0001</v>
       </c>
       <c r="H97" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G97)</f>
@@ -7153,19 +7153,19 @@
         <v>0</v>
       </c>
       <c r="D98" s="1" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E98" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MH1_Quote</v>
+        <v>HKDFUT3MM1_Quote</v>
       </c>
       <c r="F98" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MH1ConvAdj_Quote</v>
+        <v>HKDFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="G98" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F98,IborIndex,$D98,$E98,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM1ConvAdj_Quote#0001</v>
       </c>
       <c r="H98" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G98)</f>
@@ -7181,19 +7181,19 @@
         <v>0</v>
       </c>
       <c r="D99" s="1" t="str">
-        <v>J1</v>
+        <v>N1</v>
       </c>
       <c r="E99" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MJ1_Quote</v>
+        <v>HKDFUT3MN1_Quote</v>
       </c>
       <c r="F99" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MJ1ConvAdj_Quote</v>
+        <v>HKDFUT3MN1ConvAdj_Quote</v>
       </c>
       <c r="G99" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F99,IborIndex,$D99,$E99,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ1ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MN1ConvAdj_Quote#0001</v>
       </c>
       <c r="H99" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G99)</f>
@@ -7209,19 +7209,19 @@
         <v>0</v>
       </c>
       <c r="D100" s="1" t="str">
-        <v>K1</v>
+        <v>Q1</v>
       </c>
       <c r="E100" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MK1_Quote</v>
+        <v>HKDFUT3MQ1_Quote</v>
       </c>
       <c r="F100" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MK1ConvAdj_Quote</v>
+        <v>HKDFUT3MQ1ConvAdj_Quote</v>
       </c>
       <c r="G100" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F100,IborIndex,$D100,$E100,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK1ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MQ1ConvAdj_Quote#0001</v>
       </c>
       <c r="H100" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G100)</f>
@@ -7237,19 +7237,19 @@
         <v>0</v>
       </c>
       <c r="D101" s="1" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E101" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MM1_Quote</v>
+        <v>HKDFUT3MU1_Quote</v>
       </c>
       <c r="F101" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MM1ConvAdj_Quote</v>
+        <v>HKDFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="G101" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F101,IborIndex,$D101,$E101,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU1ConvAdj_Quote#0001</v>
       </c>
       <c r="H101" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G101)</f>
@@ -7265,19 +7265,19 @@
         <v>0</v>
       </c>
       <c r="D102" s="1" t="str">
-        <v>N1</v>
+        <v>V1</v>
       </c>
       <c r="E102" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>HKDFUT3MN1_Quote</v>
+        <v>HKDFUT3MV1_Quote</v>
       </c>
       <c r="F102" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>HKDFUT3MN1ConvAdj_Quote</v>
+        <v>HKDFUT3MV1ConvAdj_Quote</v>
       </c>
       <c r="G102" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F102,IborIndex,$D102,$E102,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV1ConvAdj_Quote#0001</v>
       </c>
       <c r="H102" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G102)</f>
@@ -7293,19 +7293,19 @@
         <v>0</v>
       </c>
       <c r="D103" s="1" t="str">
-        <v>Q1</v>
+        <v>X1</v>
       </c>
       <c r="E103" s="18" t="str">
         <f t="shared" ref="E103:E126" si="6">Currency&amp;"FUT"&amp;$G$4&amp;$D103&amp;QuoteSuffix</f>
-        <v>HKDFUT3MQ1_Quote</v>
+        <v>HKDFUT3MX1_Quote</v>
       </c>
       <c r="F103" s="19" t="str">
         <f t="shared" ref="F103:F126" si="7">Currency&amp;"FUT"&amp;$G$4&amp;$D103&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>HKDFUT3MQ1ConvAdj_Quote</v>
+        <v>HKDFUT3MX1ConvAdj_Quote</v>
       </c>
       <c r="G103" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F103,IborIndex,$D103,$E103,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ1ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MX1ConvAdj_Quote#0001</v>
       </c>
       <c r="H103" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G103)</f>
@@ -7321,19 +7321,19 @@
         <v>0</v>
       </c>
       <c r="D104" s="1" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E104" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MU1_Quote</v>
+        <v>HKDFUT3MZ1_Quote</v>
       </c>
       <c r="F104" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MU1ConvAdj_Quote</v>
+        <v>HKDFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="G104" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F104,IborIndex,$D104,$E104,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ1ConvAdj_Quote#0001</v>
       </c>
       <c r="H104" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G104)</f>
@@ -7349,19 +7349,19 @@
         <v>0</v>
       </c>
       <c r="D105" s="1" t="str">
-        <v>V1</v>
+        <v>F2</v>
       </c>
       <c r="E105" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MV1_Quote</v>
+        <v>HKDFUT3MF2_Quote</v>
       </c>
       <c r="F105" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MV1ConvAdj_Quote</v>
+        <v>HKDFUT3MF2ConvAdj_Quote</v>
       </c>
       <c r="G105" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F105,IborIndex,$D105,$E105,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF2ConvAdj_Quote#0001</v>
       </c>
       <c r="H105" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G105)</f>
@@ -7377,19 +7377,19 @@
         <v>0</v>
       </c>
       <c r="D106" s="1" t="str">
-        <v>X1</v>
+        <v>G2</v>
       </c>
       <c r="E106" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MX1_Quote</v>
+        <v>HKDFUT3MG2_Quote</v>
       </c>
       <c r="F106" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MX1ConvAdj_Quote</v>
+        <v>HKDFUT3MG2ConvAdj_Quote</v>
       </c>
       <c r="G106" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F106,IborIndex,$D106,$E106,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG2ConvAdj_Quote#0001</v>
       </c>
       <c r="H106" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G106)</f>
@@ -7405,19 +7405,19 @@
         <v>0</v>
       </c>
       <c r="D107" s="1" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E107" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MZ1_Quote</v>
+        <v>HKDFUT3MH2_Quote</v>
       </c>
       <c r="F107" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MZ1ConvAdj_Quote</v>
+        <v>HKDFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="G107" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F107,IborIndex,$D107,$E107,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ1ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MH2ConvAdj_Quote#0001</v>
       </c>
       <c r="H107" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G107)</f>
@@ -7433,19 +7433,19 @@
         <v>0</v>
       </c>
       <c r="D108" s="1" t="str">
-        <v>F2</v>
+        <v>J2</v>
       </c>
       <c r="E108" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MF2_Quote</v>
+        <v>HKDFUT3MJ2_Quote</v>
       </c>
       <c r="F108" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MF2ConvAdj_Quote</v>
+        <v>HKDFUT3MJ2ConvAdj_Quote</v>
       </c>
       <c r="G108" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F108,IborIndex,$D108,$E108,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF2ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MJ2ConvAdj_Quote#0001</v>
       </c>
       <c r="H108" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G108)</f>
@@ -7461,19 +7461,19 @@
         <v>0</v>
       </c>
       <c r="D109" s="1" t="str">
-        <v>G2</v>
+        <v>K2</v>
       </c>
       <c r="E109" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MG2_Quote</v>
+        <v>HKDFUT3MK2_Quote</v>
       </c>
       <c r="F109" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MG2ConvAdj_Quote</v>
+        <v>HKDFUT3MK2ConvAdj_Quote</v>
       </c>
       <c r="G109" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F109,IborIndex,$D109,$E109,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK2ConvAdj_Quote#0001</v>
       </c>
       <c r="H109" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G109)</f>
@@ -7489,19 +7489,19 @@
         <v>0</v>
       </c>
       <c r="D110" s="1" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E110" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MH2_Quote</v>
+        <v>HKDFUT3MM2_Quote</v>
       </c>
       <c r="F110" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MH2ConvAdj_Quote</v>
+        <v>HKDFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="G110" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F110,IborIndex,$D110,$E110,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM2ConvAdj_Quote#0001</v>
       </c>
       <c r="H110" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G110)</f>
@@ -7517,19 +7517,19 @@
         <v>0</v>
       </c>
       <c r="D111" s="1" t="str">
-        <v>J2</v>
+        <v>N2</v>
       </c>
       <c r="E111" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MJ2_Quote</v>
+        <v>HKDFUT3MN2_Quote</v>
       </c>
       <c r="F111" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MJ2ConvAdj_Quote</v>
+        <v>HKDFUT3MN2ConvAdj_Quote</v>
       </c>
       <c r="G111" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F111,IborIndex,$D111,$E111,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ2ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MN2ConvAdj_Quote#0001</v>
       </c>
       <c r="H111" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G111)</f>
@@ -7545,19 +7545,19 @@
         <v>0</v>
       </c>
       <c r="D112" s="1" t="str">
-        <v>K2</v>
+        <v>Q2</v>
       </c>
       <c r="E112" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MK2_Quote</v>
+        <v>HKDFUT3MQ2_Quote</v>
       </c>
       <c r="F112" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MK2ConvAdj_Quote</v>
+        <v>HKDFUT3MQ2ConvAdj_Quote</v>
       </c>
       <c r="G112" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F112,IborIndex,$D112,$E112,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK2ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MQ2ConvAdj_Quote#0001</v>
       </c>
       <c r="H112" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G112)</f>
@@ -7573,19 +7573,19 @@
         <v>0</v>
       </c>
       <c r="D113" s="1" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E113" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MM2_Quote</v>
+        <v>HKDFUT3MU2_Quote</v>
       </c>
       <c r="F113" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MM2ConvAdj_Quote</v>
+        <v>HKDFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="G113" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F113,IborIndex,$D113,$E113,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU2ConvAdj_Quote#0001</v>
       </c>
       <c r="H113" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G113)</f>
@@ -7601,19 +7601,19 @@
         <v>0</v>
       </c>
       <c r="D114" s="1" t="str">
-        <v>N2</v>
+        <v>V2</v>
       </c>
       <c r="E114" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MN2_Quote</v>
+        <v>HKDFUT3MV2_Quote</v>
       </c>
       <c r="F114" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MN2ConvAdj_Quote</v>
+        <v>HKDFUT3MV2ConvAdj_Quote</v>
       </c>
       <c r="G114" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F114,IborIndex,$D114,$E114,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV2ConvAdj_Quote#0001</v>
       </c>
       <c r="H114" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G114)</f>
@@ -7629,19 +7629,19 @@
         <v>0</v>
       </c>
       <c r="D115" s="1" t="str">
-        <v>Q2</v>
+        <v>X2</v>
       </c>
       <c r="E115" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MQ2_Quote</v>
+        <v>HKDFUT3MX2_Quote</v>
       </c>
       <c r="F115" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MQ2ConvAdj_Quote</v>
+        <v>HKDFUT3MX2ConvAdj_Quote</v>
       </c>
       <c r="G115" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F115,IborIndex,$D115,$E115,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX2ConvAdj_Quote#0001</v>
       </c>
       <c r="H115" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G115)</f>
@@ -7657,19 +7657,19 @@
         <v>0</v>
       </c>
       <c r="D116" s="1" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E116" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MU2_Quote</v>
+        <v>HKDFUT3MZ2_Quote</v>
       </c>
       <c r="F116" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MU2ConvAdj_Quote</v>
+        <v>HKDFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="G116" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F116,IborIndex,$D116,$E116,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU2ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MZ2ConvAdj_Quote#0001</v>
       </c>
       <c r="H116" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G116)</f>
@@ -7685,19 +7685,19 @@
         <v>0</v>
       </c>
       <c r="D117" s="1" t="str">
-        <v>V2</v>
+        <v>F3</v>
       </c>
       <c r="E117" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MV2_Quote</v>
+        <v>HKDFUT3MF3_Quote</v>
       </c>
       <c r="F117" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MV2ConvAdj_Quote</v>
+        <v>HKDFUT3MF3ConvAdj_Quote</v>
       </c>
       <c r="G117" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F117,IborIndex,$D117,$E117,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF3ConvAdj_Quote#0001</v>
       </c>
       <c r="H117" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G117)</f>
@@ -7713,19 +7713,19 @@
         <v>0</v>
       </c>
       <c r="D118" s="1" t="str">
-        <v>X2</v>
+        <v>G3</v>
       </c>
       <c r="E118" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MX2_Quote</v>
+        <v>HKDFUT3MG3_Quote</v>
       </c>
       <c r="F118" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MX2ConvAdj_Quote</v>
+        <v>HKDFUT3MG3ConvAdj_Quote</v>
       </c>
       <c r="G118" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F118,IborIndex,$D118,$E118,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG3ConvAdj_Quote#0001</v>
       </c>
       <c r="H118" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G118)</f>
@@ -7741,19 +7741,19 @@
         <v>0</v>
       </c>
       <c r="D119" s="1" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E119" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MZ2_Quote</v>
+        <v>HKDFUT3MH3_Quote</v>
       </c>
       <c r="F119" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MZ2ConvAdj_Quote</v>
+        <v>HKDFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="G119" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F119,IborIndex,$D119,$E119,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ2ConvAdj_Quote#0000</v>
+        <v>HKDFUT3MH3ConvAdj_Quote#0001</v>
       </c>
       <c r="H119" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G119)</f>
@@ -7769,19 +7769,19 @@
         <v>0</v>
       </c>
       <c r="D120" s="1" t="str">
-        <v>F3</v>
+        <v>J3</v>
       </c>
       <c r="E120" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MF3_Quote</v>
+        <v>HKDFUT3MJ3_Quote</v>
       </c>
       <c r="F120" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MF3ConvAdj_Quote</v>
+        <v>HKDFUT3MJ3ConvAdj_Quote</v>
       </c>
       <c r="G120" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F120,IborIndex,$D120,$E120,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ3ConvAdj_Quote#0001</v>
       </c>
       <c r="H120" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G120)</f>
@@ -7797,19 +7797,19 @@
         <v>0</v>
       </c>
       <c r="D121" s="1" t="str">
-        <v>G3</v>
+        <v>K3</v>
       </c>
       <c r="E121" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MG3_Quote</v>
+        <v>HKDFUT3MK3_Quote</v>
       </c>
       <c r="F121" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MG3ConvAdj_Quote</v>
+        <v>HKDFUT3MK3ConvAdj_Quote</v>
       </c>
       <c r="G121" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F121,IborIndex,$D121,$E121,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK3ConvAdj_Quote#0001</v>
       </c>
       <c r="H121" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G121)</f>
@@ -7825,19 +7825,19 @@
         <v>0</v>
       </c>
       <c r="D122" s="1" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E122" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MH3_Quote</v>
+        <v>HKDFUT3MM3_Quote</v>
       </c>
       <c r="F122" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MH3ConvAdj_Quote</v>
+        <v>HKDFUT3MM3ConvAdj_Quote</v>
       </c>
       <c r="G122" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F122,IborIndex,$D122,$E122,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM3ConvAdj_Quote#0001</v>
       </c>
       <c r="H122" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G122)</f>
@@ -7853,19 +7853,19 @@
         <v>0</v>
       </c>
       <c r="D123" s="1" t="str">
-        <v>J3</v>
+        <v>N3</v>
       </c>
       <c r="E123" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MJ3_Quote</v>
+        <v>HKDFUT3MN3_Quote</v>
       </c>
       <c r="F123" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MJ3ConvAdj_Quote</v>
+        <v>HKDFUT3MN3ConvAdj_Quote</v>
       </c>
       <c r="G123" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F123,IborIndex,$D123,$E123,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN3ConvAdj_Quote#0001</v>
       </c>
       <c r="H123" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G123)</f>
@@ -7881,19 +7881,19 @@
         <v>0</v>
       </c>
       <c r="D124" s="1" t="str">
-        <v>K3</v>
+        <v>Q3</v>
       </c>
       <c r="E124" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MK3_Quote</v>
+        <v>HKDFUT3MQ3_Quote</v>
       </c>
       <c r="F124" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MK3ConvAdj_Quote</v>
+        <v>HKDFUT3MQ3ConvAdj_Quote</v>
       </c>
       <c r="G124" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F124,IborIndex,$D124,$E124,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ3ConvAdj_Quote#0001</v>
       </c>
       <c r="H124" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G124)</f>
@@ -7909,19 +7909,19 @@
         <v>0</v>
       </c>
       <c r="D125" s="1" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="E125" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MM3_Quote</v>
+        <v>HKDFUT3MU3_Quote</v>
       </c>
       <c r="F125" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MM3ConvAdj_Quote</v>
+        <v>HKDFUT3MU3ConvAdj_Quote</v>
       </c>
       <c r="G125" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F125,IborIndex,$D125,$E125,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU3ConvAdj_Quote#0001</v>
       </c>
       <c r="H125" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G125)</f>
@@ -7937,19 +7937,19 @@
         <v>0</v>
       </c>
       <c r="D126" s="1" t="str">
-        <v>N3</v>
+        <v>V3</v>
       </c>
       <c r="E126" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>HKDFUT3MN3_Quote</v>
+        <v>HKDFUT3MV3_Quote</v>
       </c>
       <c r="F126" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>HKDFUT3MN3ConvAdj_Quote</v>
+        <v>HKDFUT3MV3ConvAdj_Quote</v>
       </c>
       <c r="G126" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F126,IborIndex,$D126,$E126,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV3ConvAdj_Quote#0001</v>
       </c>
       <c r="H126" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G126)</f>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_FuturesConvAdjQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_FuturesConvAdjQuotes.xlsx
@@ -11,9 +11,6 @@
     <sheet name="1M" sheetId="14" r:id="rId2"/>
     <sheet name="3M" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FamilyName">'General Settings'!$D$15</definedName>
@@ -561,22 +558,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -886,7 +867,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -954,8 +935,8 @@
         <v>9</v>
       </c>
       <c r="D8" s="12" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <f>qlSerializationPath(Trigger)</f>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1138,13 +1119,13 @@
         <f>Currency&amp;"_020_Futures"&amp;G4&amp;"ConvAdj.xml"</f>
         <v>HKD_020_Futures1MConvAdj.xml</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="28" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="29" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_020_Futures1MConvAdj.xml</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4586,13 +4567,13 @@
         <f>Currency&amp;"_020_Futures"&amp;G4&amp;"ConvAdj.xml"</f>
         <v>HKD_020_Futures3MConvAdj.xml</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="28" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="29" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_020_Futures3MConvAdj.xml</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_FuturesConvAdjQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_FuturesConvAdjQuotes.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Currency</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Hibor</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -934,9 +937,8 @@
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12" t="str">
-        <f>qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1125,7 +1127,7 @@
       </c>
       <c r="H6" s="29" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_020_Futures1MConvAdj.xml</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4573,7 +4575,7 @@
       </c>
       <c r="H6" s="29" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_020_Futures3MConvAdj.xml</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_FuturesConvAdjQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_FuturesConvAdjQuotes.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Currency</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Hibor</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -937,8 +934,9 @@
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
+      <c r="D8" s="12" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1122,12 +1120,12 @@
         <v>HKD_020_Futures1MConvAdj.xml</v>
       </c>
       <c r="G6" s="28" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="29" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="29" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4570,12 +4568,12 @@
         <v>HKD_020_Futures3MConvAdj.xml</v>
       </c>
       <c r="G6" s="28" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="29" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="29" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_FuturesConvAdjQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_FuturesConvAdjQuotes.xlsx
@@ -867,7 +867,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
       </c>
       <c r="D8" s="12" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1119,13 +1119,13 @@
         <f>Currency&amp;"_020_Futures"&amp;G4&amp;"ConvAdj.xml"</f>
         <v>HKD_020_Futures1MConvAdj.xml</v>
       </c>
-      <c r="G6" s="28" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="29" t="e">
+      <c r="G6" s="28">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="H6" s="29" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G7" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F7,IborIndex,$D7,$E7,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX3ConvAdj_Quote#0003</v>
       </c>
       <c r="H7" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="G8" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F8,IborIndex,$D8,$E8,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ3ConvAdj_Quote#0003</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="G9" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F9,IborIndex,$D9,$E9,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF4ConvAdj_Quote#0003</v>
       </c>
       <c r="H9" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="G10" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F10,IborIndex,$D10,$E10,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG4ConvAdj_Quote#0003</v>
       </c>
       <c r="H10" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="G11" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F11,IborIndex,$D11,$E11,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH4ConvAdj_Quote#0003</v>
       </c>
       <c r="H11" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="G12" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F12,IborIndex,$D12,$E12,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ4ConvAdj_Quote#0003</v>
       </c>
       <c r="H12" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="G13" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F13,IborIndex,$D13,$E13,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK4ConvAdj_Quote#0003</v>
       </c>
       <c r="H13" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="G14" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F14,IborIndex,$D14,$E14,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM4ConvAdj_Quote#0003</v>
       </c>
       <c r="H14" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="G15" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F15,IborIndex,$D15,$E15,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN4ConvAdj_Quote#0003</v>
       </c>
       <c r="H15" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="G16" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F16,IborIndex,$D16,$E16,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ4ConvAdj_Quote#0003</v>
       </c>
       <c r="H16" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="G17" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F17,IborIndex,$D17,$E17,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU4ConvAdj_Quote#0003</v>
       </c>
       <c r="H17" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G18" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F18,IborIndex,$D18,$E18,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV4ConvAdj_Quote#0003</v>
       </c>
       <c r="H18" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="G19" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F19,IborIndex,$D19,$E19,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX4ConvAdj_Quote#0003</v>
       </c>
       <c r="H19" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="G20" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F20,IborIndex,$D20,$E20,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ4ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ4ConvAdj_Quote#0003</v>
       </c>
       <c r="H20" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="G21" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F21,IborIndex,$D21,$E21,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF5ConvAdj_Quote#0003</v>
       </c>
       <c r="H21" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="G22" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F22,IborIndex,$D22,$E22,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG5ConvAdj_Quote#0003</v>
       </c>
       <c r="H22" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="G23" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F23,IborIndex,$D23,$E23,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH5ConvAdj_Quote#0003</v>
       </c>
       <c r="H23" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="G24" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F24,IborIndex,$D24,$E24,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ5ConvAdj_Quote#0003</v>
       </c>
       <c r="H24" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G25" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F25,IborIndex,$D25,$E25,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK5ConvAdj_Quote#0003</v>
       </c>
       <c r="H25" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G26" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F26,IborIndex,$D26,$E26,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM5ConvAdj_Quote#0003</v>
       </c>
       <c r="H26" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="G27" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F27,IborIndex,$D27,$E27,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN5ConvAdj_Quote#0003</v>
       </c>
       <c r="H27" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="G28" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F28,IborIndex,$D28,$E28,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ5ConvAdj_Quote#0003</v>
       </c>
       <c r="H28" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="G29" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F29,IborIndex,$D29,$E29,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU5ConvAdj_Quote#0003</v>
       </c>
       <c r="H29" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="G30" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F30,IborIndex,$D30,$E30,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV5ConvAdj_Quote#0003</v>
       </c>
       <c r="H30" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="G31" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F31,IborIndex,$D31,$E31,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX5ConvAdj_Quote#0003</v>
       </c>
       <c r="H31" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="G32" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F32,IborIndex,$D32,$E32,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ5ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ5ConvAdj_Quote#0003</v>
       </c>
       <c r="H32" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="G33" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F33,IborIndex,$D33,$E33,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF6ConvAdj_Quote#0003</v>
       </c>
       <c r="H33" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="G34" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F34,IborIndex,$D34,$E34,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG6ConvAdj_Quote#0003</v>
       </c>
       <c r="H34" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="G35" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F35,IborIndex,$D35,$E35,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH6ConvAdj_Quote#0003</v>
       </c>
       <c r="H35" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="G36" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F36,IborIndex,$D36,$E36,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ6ConvAdj_Quote#0003</v>
       </c>
       <c r="H36" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="G37" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F37,IborIndex,$D37,$E37,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK6ConvAdj_Quote#0003</v>
       </c>
       <c r="H37" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="G38" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F38,IborIndex,$D38,$E38,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM6ConvAdj_Quote#0003</v>
       </c>
       <c r="H38" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="G39" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F39,IborIndex,$D39,$E39,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN6ConvAdj_Quote#0003</v>
       </c>
       <c r="H39" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="G40" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F40,IborIndex,$D40,$E40,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ6ConvAdj_Quote#0003</v>
       </c>
       <c r="H40" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="G41" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F41,IborIndex,$D41,$E41,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU6ConvAdj_Quote#0003</v>
       </c>
       <c r="H41" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="G42" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F42,IborIndex,$D42,$E42,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV6ConvAdj_Quote#0003</v>
       </c>
       <c r="H42" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="G43" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F43,IborIndex,$D43,$E43,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX6ConvAdj_Quote#0003</v>
       </c>
       <c r="H43" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="G44" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F44,IborIndex,$D44,$E44,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ6ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ6ConvAdj_Quote#0003</v>
       </c>
       <c r="H44" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G45" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F45,IborIndex,$D45,$E45,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF7ConvAdj_Quote#0003</v>
       </c>
       <c r="H45" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="G46" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F46,IborIndex,$D46,$E46,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG7ConvAdj_Quote#0003</v>
       </c>
       <c r="H46" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G47" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F47,IborIndex,$D47,$E47,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH7ConvAdj_Quote#0003</v>
       </c>
       <c r="H47" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="G48" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F48,IborIndex,$D48,$E48,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ7ConvAdj_Quote#0003</v>
       </c>
       <c r="H48" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G49" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F49,IborIndex,$D49,$E49,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK7ConvAdj_Quote#0003</v>
       </c>
       <c r="H49" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="G50" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F50,IborIndex,$D50,$E50,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM7ConvAdj_Quote#0003</v>
       </c>
       <c r="H50" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="G51" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F51,IborIndex,$D51,$E51,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN7ConvAdj_Quote#0003</v>
       </c>
       <c r="H51" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G52" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F52,IborIndex,$D52,$E52,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ7ConvAdj_Quote#0003</v>
       </c>
       <c r="H52" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="G53" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F53,IborIndex,$D53,$E53,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU7ConvAdj_Quote#0003</v>
       </c>
       <c r="H53" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G54" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F54,IborIndex,$D54,$E54,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV7ConvAdj_Quote#0003</v>
       </c>
       <c r="H54" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="G55" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F55,IborIndex,$D55,$E55,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX7ConvAdj_Quote#0003</v>
       </c>
       <c r="H55" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="G56" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F56,IborIndex,$D56,$E56,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ7ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ7ConvAdj_Quote#0003</v>
       </c>
       <c r="H56" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="G57" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F57,IborIndex,$D57,$E57,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF8ConvAdj_Quote#0003</v>
       </c>
       <c r="H57" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="G58" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F58,IborIndex,$D58,$E58,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG8ConvAdj_Quote#0003</v>
       </c>
       <c r="H58" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="G59" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F59,IborIndex,$D59,$E59,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH8ConvAdj_Quote#0003</v>
       </c>
       <c r="H59" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="G60" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F60,IborIndex,$D60,$E60,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ8ConvAdj_Quote#0003</v>
       </c>
       <c r="H60" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G61" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F61,IborIndex,$D61,$E61,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK8ConvAdj_Quote#0003</v>
       </c>
       <c r="H61" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G62" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F62,IborIndex,$D62,$E62,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM8ConvAdj_Quote#0003</v>
       </c>
       <c r="H62" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="G63" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F63,IborIndex,$D63,$E63,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN8ConvAdj_Quote#0003</v>
       </c>
       <c r="H63" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="G64" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F64,IborIndex,$D64,$E64,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ8ConvAdj_Quote#0003</v>
       </c>
       <c r="H64" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="G65" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F65,IborIndex,$D65,$E65,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU8ConvAdj_Quote#0003</v>
       </c>
       <c r="H65" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="G66" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F66,IborIndex,$D66,$E66,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV8ConvAdj_Quote#0003</v>
       </c>
       <c r="H66" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G67" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F67,IborIndex,$D67,$E67,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX8ConvAdj_Quote#0003</v>
       </c>
       <c r="H67" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G67)</f>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="G68" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F68,IborIndex,$D68,$E68,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ8ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ8ConvAdj_Quote#0003</v>
       </c>
       <c r="H68" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G68)</f>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="G69" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F69,IborIndex,$D69,$E69,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF9ConvAdj_Quote#0003</v>
       </c>
       <c r="H69" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G69)</f>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="G70" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F70,IborIndex,$D70,$E70,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG9ConvAdj_Quote#0003</v>
       </c>
       <c r="H70" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G70)</f>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="G71" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F71,IborIndex,$D71,$E71,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH9ConvAdj_Quote#0003</v>
       </c>
       <c r="H71" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G71)</f>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="G72" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F72,IborIndex,$D72,$E72,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ9ConvAdj_Quote#0003</v>
       </c>
       <c r="H72" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G72)</f>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="G73" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F73,IborIndex,$D73,$E73,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK9ConvAdj_Quote#0003</v>
       </c>
       <c r="H73" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G73)</f>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="G74" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F74,IborIndex,$D74,$E74,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM9ConvAdj_Quote#0003</v>
       </c>
       <c r="H74" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G74)</f>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="G75" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F75,IborIndex,$D75,$E75,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN9ConvAdj_Quote#0003</v>
       </c>
       <c r="H75" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G75)</f>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="G76" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F76,IborIndex,$D76,$E76,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ9ConvAdj_Quote#0003</v>
       </c>
       <c r="H76" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G76)</f>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="G77" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F77,IborIndex,$D77,$E77,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU9ConvAdj_Quote#0003</v>
       </c>
       <c r="H77" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G77)</f>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="G78" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F78,IborIndex,$D78,$E78,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV9ConvAdj_Quote#0003</v>
       </c>
       <c r="H78" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G78)</f>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="G79" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F79,IborIndex,$D79,$E79,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX9ConvAdj_Quote#0003</v>
       </c>
       <c r="H79" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G79)</f>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G80" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F80,IborIndex,$D80,$E80,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ9ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ9ConvAdj_Quote#0003</v>
       </c>
       <c r="H80" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G80)</f>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="G81" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F81,IborIndex,$D81,$E81,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF0ConvAdj_Quote#0003</v>
       </c>
       <c r="H81" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G81)</f>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G82" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F82,IborIndex,$D82,$E82,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG0ConvAdj_Quote#0003</v>
       </c>
       <c r="H82" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G82)</f>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="G83" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F83,IborIndex,$D83,$E83,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH0ConvAdj_Quote#0003</v>
       </c>
       <c r="H83" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G83)</f>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="G84" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F84,IborIndex,$D84,$E84,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ0ConvAdj_Quote#0003</v>
       </c>
       <c r="H84" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G84)</f>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="G85" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F85,IborIndex,$D85,$E85,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK0ConvAdj_Quote#0003</v>
       </c>
       <c r="H85" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G85)</f>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="G86" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F86,IborIndex,$D86,$E86,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM0ConvAdj_Quote#0003</v>
       </c>
       <c r="H86" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G86)</f>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="G87" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F87,IborIndex,$D87,$E87,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN0ConvAdj_Quote#0003</v>
       </c>
       <c r="H87" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G87)</f>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="G88" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F88,IborIndex,$D88,$E88,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ0ConvAdj_Quote#0003</v>
       </c>
       <c r="H88" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G88)</f>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="G89" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F89,IborIndex,$D89,$E89,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU0ConvAdj_Quote#0003</v>
       </c>
       <c r="H89" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G89)</f>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="G90" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F90,IborIndex,$D90,$E90,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV0ConvAdj_Quote#0003</v>
       </c>
       <c r="H90" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G90)</f>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="G91" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F91,IborIndex,$D91,$E91,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX0ConvAdj_Quote#0003</v>
       </c>
       <c r="H91" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G91)</f>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="G92" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F92,IborIndex,$D92,$E92,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ0ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ0ConvAdj_Quote#0003</v>
       </c>
       <c r="H92" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G92)</f>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="G93" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F93,IborIndex,$D93,$E93,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF1ConvAdj_Quote#0003</v>
       </c>
       <c r="H93" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G93)</f>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="G94" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F94,IborIndex,$D94,$E94,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG1ConvAdj_Quote#0003</v>
       </c>
       <c r="H94" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G94)</f>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="G95" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F95,IborIndex,$D95,$E95,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH1ConvAdj_Quote#0003</v>
       </c>
       <c r="H95" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G95)</f>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="G96" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F96,IborIndex,$D96,$E96,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ1ConvAdj_Quote#0003</v>
       </c>
       <c r="H96" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G96)</f>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="G97" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F97,IborIndex,$D97,$E97,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK1ConvAdj_Quote#0003</v>
       </c>
       <c r="H97" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G97)</f>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="G98" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F98,IborIndex,$D98,$E98,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM1ConvAdj_Quote#0003</v>
       </c>
       <c r="H98" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G98)</f>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="G99" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F99,IborIndex,$D99,$E99,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN1ConvAdj_Quote#0003</v>
       </c>
       <c r="H99" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G99)</f>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="G100" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F100,IborIndex,$D100,$E100,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ1ConvAdj_Quote#0003</v>
       </c>
       <c r="H100" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G100)</f>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="G101" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F101,IborIndex,$D101,$E101,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU1ConvAdj_Quote#0003</v>
       </c>
       <c r="H101" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G101)</f>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="G102" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F102,IborIndex,$D102,$E102,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV1ConvAdj_Quote#0003</v>
       </c>
       <c r="H102" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G102)</f>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="G103" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F103,IborIndex,$D103,$E103,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX1ConvAdj_Quote#0003</v>
       </c>
       <c r="H103" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G103)</f>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="G104" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F104,IborIndex,$D104,$E104,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ1ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ1ConvAdj_Quote#0003</v>
       </c>
       <c r="H104" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G104)</f>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="G105" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F105,IborIndex,$D105,$E105,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF2ConvAdj_Quote#0003</v>
       </c>
       <c r="H105" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G105)</f>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="G106" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F106,IborIndex,$D106,$E106,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG2ConvAdj_Quote#0003</v>
       </c>
       <c r="H106" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G106)</f>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G107" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F107,IborIndex,$D107,$E107,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH2ConvAdj_Quote#0003</v>
       </c>
       <c r="H107" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G107)</f>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="G108" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F108,IborIndex,$D108,$E108,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ2ConvAdj_Quote#0003</v>
       </c>
       <c r="H108" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G108)</f>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="G109" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F109,IborIndex,$D109,$E109,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK2ConvAdj_Quote#0003</v>
       </c>
       <c r="H109" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G109)</f>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="G110" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F110,IborIndex,$D110,$E110,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM2ConvAdj_Quote#0003</v>
       </c>
       <c r="H110" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G110)</f>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="G111" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F111,IborIndex,$D111,$E111,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN2ConvAdj_Quote#0003</v>
       </c>
       <c r="H111" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G111)</f>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="G112" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F112,IborIndex,$D112,$E112,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ2ConvAdj_Quote#0003</v>
       </c>
       <c r="H112" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G112)</f>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="G113" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F113,IborIndex,$D113,$E113,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU2ConvAdj_Quote#0003</v>
       </c>
       <c r="H113" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G113)</f>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="G114" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F114,IborIndex,$D114,$E114,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV2ConvAdj_Quote#0003</v>
       </c>
       <c r="H114" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G114)</f>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="G115" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F115,IborIndex,$D115,$E115,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MX2ConvAdj_Quote#0003</v>
       </c>
       <c r="H115" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G115)</f>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="G116" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F116,IborIndex,$D116,$E116,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ2ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MZ2ConvAdj_Quote#0003</v>
       </c>
       <c r="H116" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G116)</f>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="G117" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F117,IborIndex,$D117,$E117,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MF3ConvAdj_Quote#0003</v>
       </c>
       <c r="H117" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G117)</f>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="G118" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F118,IborIndex,$D118,$E118,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MG3ConvAdj_Quote#0003</v>
       </c>
       <c r="H118" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G118)</f>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="G119" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F119,IborIndex,$D119,$E119,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MH3ConvAdj_Quote#0003</v>
       </c>
       <c r="H119" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G119)</f>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="G120" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F120,IborIndex,$D120,$E120,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MJ3ConvAdj_Quote#0003</v>
       </c>
       <c r="H120" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G120)</f>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="G121" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F121,IborIndex,$D121,$E121,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MK3ConvAdj_Quote#0003</v>
       </c>
       <c r="H121" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G121)</f>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="G122" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F122,IborIndex,$D122,$E122,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MM3ConvAdj_Quote#0003</v>
       </c>
       <c r="H122" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G122)</f>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="G123" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F123,IborIndex,$D123,$E123,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MN3ConvAdj_Quote#0003</v>
       </c>
       <c r="H123" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G123)</f>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="G124" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F124,IborIndex,$D124,$E124,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MQ3ConvAdj_Quote#0003</v>
       </c>
       <c r="H124" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G124)</f>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="G125" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F125,IborIndex,$D125,$E125,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MU3ConvAdj_Quote#0003</v>
       </c>
       <c r="H125" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G125)</f>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="G126" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F126,IborIndex,$D126,$E126,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV3ConvAdj_Quote#0001</v>
+        <v>HKDFUT1MV3ConvAdj_Quote#0003</v>
       </c>
       <c r="H126" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G126)</f>
@@ -4567,13 +4567,13 @@
         <f>Currency&amp;"_020_Futures"&amp;G4&amp;"ConvAdj.xml"</f>
         <v>HKD_020_Futures3MConvAdj.xml</v>
       </c>
-      <c r="G6" s="28" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="29" t="e">
+      <c r="G6" s="28">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="H6" s="29" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="G7" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F7,IborIndex,$D7,$E7,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX3ConvAdj_Quote#0003</v>
       </c>
       <c r="H7" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="G8" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F8,IborIndex,$D8,$E8,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ3ConvAdj_Quote#0003</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="G9" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F9,IborIndex,$D9,$E9,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF4ConvAdj_Quote#0003</v>
       </c>
       <c r="H9" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="G10" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F10,IborIndex,$D10,$E10,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG4ConvAdj_Quote#0003</v>
       </c>
       <c r="H10" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="G11" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F11,IborIndex,$D11,$E11,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH4ConvAdj_Quote#0003</v>
       </c>
       <c r="H11" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="G12" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F12,IborIndex,$D12,$E12,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ4ConvAdj_Quote#0003</v>
       </c>
       <c r="H12" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="G13" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F13,IborIndex,$D13,$E13,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK4ConvAdj_Quote#0003</v>
       </c>
       <c r="H13" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="G14" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F14,IborIndex,$D14,$E14,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM4ConvAdj_Quote#0003</v>
       </c>
       <c r="H14" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="G15" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F15,IborIndex,$D15,$E15,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN4ConvAdj_Quote#0003</v>
       </c>
       <c r="H15" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="G16" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F16,IborIndex,$D16,$E16,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ4ConvAdj_Quote#0003</v>
       </c>
       <c r="H16" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="G17" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F17,IborIndex,$D17,$E17,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU4ConvAdj_Quote#0003</v>
       </c>
       <c r="H17" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="G18" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F18,IborIndex,$D18,$E18,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV4ConvAdj_Quote#0003</v>
       </c>
       <c r="H18" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="G19" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F19,IborIndex,$D19,$E19,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX4ConvAdj_Quote#0003</v>
       </c>
       <c r="H19" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="G20" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F20,IborIndex,$D20,$E20,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ4ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ4ConvAdj_Quote#0003</v>
       </c>
       <c r="H20" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="G21" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F21,IborIndex,$D21,$E21,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF5ConvAdj_Quote#0003</v>
       </c>
       <c r="H21" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="G22" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F22,IborIndex,$D22,$E22,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG5ConvAdj_Quote#0003</v>
       </c>
       <c r="H22" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="G23" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F23,IborIndex,$D23,$E23,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH5ConvAdj_Quote#0003</v>
       </c>
       <c r="H23" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="G24" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F24,IborIndex,$D24,$E24,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ5ConvAdj_Quote#0003</v>
       </c>
       <c r="H24" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="G25" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F25,IborIndex,$D25,$E25,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK5ConvAdj_Quote#0003</v>
       </c>
       <c r="H25" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="G26" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F26,IborIndex,$D26,$E26,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM5ConvAdj_Quote#0003</v>
       </c>
       <c r="H26" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="G27" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F27,IborIndex,$D27,$E27,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN5ConvAdj_Quote#0003</v>
       </c>
       <c r="H27" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G28" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F28,IborIndex,$D28,$E28,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ5ConvAdj_Quote#0003</v>
       </c>
       <c r="H28" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="G29" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F29,IborIndex,$D29,$E29,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU5ConvAdj_Quote#0003</v>
       </c>
       <c r="H29" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="G30" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F30,IborIndex,$D30,$E30,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV5ConvAdj_Quote#0003</v>
       </c>
       <c r="H30" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="G31" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F31,IborIndex,$D31,$E31,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX5ConvAdj_Quote#0003</v>
       </c>
       <c r="H31" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="G32" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F32,IborIndex,$D32,$E32,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ5ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ5ConvAdj_Quote#0003</v>
       </c>
       <c r="H32" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G33" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F33,IborIndex,$D33,$E33,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF6ConvAdj_Quote#0003</v>
       </c>
       <c r="H33" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="G34" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F34,IborIndex,$D34,$E34,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG6ConvAdj_Quote#0003</v>
       </c>
       <c r="H34" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="G35" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F35,IborIndex,$D35,$E35,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH6ConvAdj_Quote#0003</v>
       </c>
       <c r="H35" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="G36" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F36,IborIndex,$D36,$E36,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ6ConvAdj_Quote#0003</v>
       </c>
       <c r="H36" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="G37" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F37,IborIndex,$D37,$E37,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK6ConvAdj_Quote#0003</v>
       </c>
       <c r="H37" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="G38" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F38,IborIndex,$D38,$E38,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM6ConvAdj_Quote#0003</v>
       </c>
       <c r="H38" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="G39" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F39,IborIndex,$D39,$E39,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN6ConvAdj_Quote#0003</v>
       </c>
       <c r="H39" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="G40" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F40,IborIndex,$D40,$E40,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ6ConvAdj_Quote#0003</v>
       </c>
       <c r="H40" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="G41" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F41,IborIndex,$D41,$E41,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU6ConvAdj_Quote#0003</v>
       </c>
       <c r="H41" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="G42" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F42,IborIndex,$D42,$E42,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV6ConvAdj_Quote#0003</v>
       </c>
       <c r="H42" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="G43" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F43,IborIndex,$D43,$E43,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX6ConvAdj_Quote#0003</v>
       </c>
       <c r="H43" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="G44" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F44,IborIndex,$D44,$E44,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ6ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ6ConvAdj_Quote#0003</v>
       </c>
       <c r="H44" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="G45" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F45,IborIndex,$D45,$E45,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF7ConvAdj_Quote#0003</v>
       </c>
       <c r="H45" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="G46" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F46,IborIndex,$D46,$E46,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG7ConvAdj_Quote#0003</v>
       </c>
       <c r="H46" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="G47" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F47,IborIndex,$D47,$E47,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH7ConvAdj_Quote#0003</v>
       </c>
       <c r="H47" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="G48" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F48,IborIndex,$D48,$E48,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ7ConvAdj_Quote#0003</v>
       </c>
       <c r="H48" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="G49" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F49,IborIndex,$D49,$E49,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK7ConvAdj_Quote#0003</v>
       </c>
       <c r="H49" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="G50" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F50,IborIndex,$D50,$E50,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM7ConvAdj_Quote#0003</v>
       </c>
       <c r="H50" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="G51" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F51,IborIndex,$D51,$E51,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN7ConvAdj_Quote#0003</v>
       </c>
       <c r="H51" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="G52" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F52,IborIndex,$D52,$E52,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ7ConvAdj_Quote#0003</v>
       </c>
       <c r="H52" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="G53" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F53,IborIndex,$D53,$E53,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU7ConvAdj_Quote#0003</v>
       </c>
       <c r="H53" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="G54" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F54,IborIndex,$D54,$E54,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV7ConvAdj_Quote#0003</v>
       </c>
       <c r="H54" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="G55" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F55,IborIndex,$D55,$E55,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX7ConvAdj_Quote#0003</v>
       </c>
       <c r="H55" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="G56" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F56,IborIndex,$D56,$E56,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ7ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ7ConvAdj_Quote#0003</v>
       </c>
       <c r="H56" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="G57" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F57,IborIndex,$D57,$E57,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF8ConvAdj_Quote#0003</v>
       </c>
       <c r="H57" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="G58" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F58,IborIndex,$D58,$E58,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG8ConvAdj_Quote#0003</v>
       </c>
       <c r="H58" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="G59" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F59,IborIndex,$D59,$E59,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH8ConvAdj_Quote#0003</v>
       </c>
       <c r="H59" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G60" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F60,IborIndex,$D60,$E60,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ8ConvAdj_Quote#0003</v>
       </c>
       <c r="H60" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="G61" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F61,IborIndex,$D61,$E61,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK8ConvAdj_Quote#0003</v>
       </c>
       <c r="H61" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="G62" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F62,IborIndex,$D62,$E62,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM8ConvAdj_Quote#0003</v>
       </c>
       <c r="H62" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="G63" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F63,IborIndex,$D63,$E63,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN8ConvAdj_Quote#0003</v>
       </c>
       <c r="H63" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="G64" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F64,IborIndex,$D64,$E64,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ8ConvAdj_Quote#0003</v>
       </c>
       <c r="H64" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="G65" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F65,IborIndex,$D65,$E65,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU8ConvAdj_Quote#0003</v>
       </c>
       <c r="H65" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="G66" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F66,IborIndex,$D66,$E66,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV8ConvAdj_Quote#0003</v>
       </c>
       <c r="H66" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="G67" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F67,IborIndex,$D67,$E67,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX8ConvAdj_Quote#0003</v>
       </c>
       <c r="H67" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G67)</f>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="G68" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F68,IborIndex,$D68,$E68,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ8ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ8ConvAdj_Quote#0003</v>
       </c>
       <c r="H68" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G68)</f>
@@ -6334,7 +6334,7 @@
       </c>
       <c r="G69" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F69,IborIndex,$D69,$E69,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF9ConvAdj_Quote#0003</v>
       </c>
       <c r="H69" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G69)</f>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="G70" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F70,IborIndex,$D70,$E70,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG9ConvAdj_Quote#0003</v>
       </c>
       <c r="H70" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G70)</f>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="G71" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F71,IborIndex,$D71,$E71,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH9ConvAdj_Quote#0003</v>
       </c>
       <c r="H71" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G71)</f>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="G72" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F72,IborIndex,$D72,$E72,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ9ConvAdj_Quote#0003</v>
       </c>
       <c r="H72" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G72)</f>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="G73" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F73,IborIndex,$D73,$E73,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK9ConvAdj_Quote#0003</v>
       </c>
       <c r="H73" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G73)</f>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="G74" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F74,IborIndex,$D74,$E74,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM9ConvAdj_Quote#0003</v>
       </c>
       <c r="H74" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G74)</f>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="G75" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F75,IborIndex,$D75,$E75,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN9ConvAdj_Quote#0003</v>
       </c>
       <c r="H75" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G75)</f>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="G76" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F76,IborIndex,$D76,$E76,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ9ConvAdj_Quote#0003</v>
       </c>
       <c r="H76" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G76)</f>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="G77" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F77,IborIndex,$D77,$E77,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU9ConvAdj_Quote#0003</v>
       </c>
       <c r="H77" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G77)</f>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="G78" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F78,IborIndex,$D78,$E78,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV9ConvAdj_Quote#0003</v>
       </c>
       <c r="H78" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G78)</f>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="G79" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F79,IborIndex,$D79,$E79,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX9ConvAdj_Quote#0003</v>
       </c>
       <c r="H79" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G79)</f>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="G80" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F80,IborIndex,$D80,$E80,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ9ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ9ConvAdj_Quote#0003</v>
       </c>
       <c r="H80" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G80)</f>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="G81" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F81,IborIndex,$D81,$E81,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF0ConvAdj_Quote#0003</v>
       </c>
       <c r="H81" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G81)</f>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="G82" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F82,IborIndex,$D82,$E82,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG0ConvAdj_Quote#0003</v>
       </c>
       <c r="H82" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G82)</f>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="G83" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F83,IborIndex,$D83,$E83,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH0ConvAdj_Quote#0003</v>
       </c>
       <c r="H83" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G83)</f>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="G84" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F84,IborIndex,$D84,$E84,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ0ConvAdj_Quote#0003</v>
       </c>
       <c r="H84" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G84)</f>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="G85" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F85,IborIndex,$D85,$E85,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK0ConvAdj_Quote#0003</v>
       </c>
       <c r="H85" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G85)</f>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="G86" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F86,IborIndex,$D86,$E86,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM0ConvAdj_Quote#0003</v>
       </c>
       <c r="H86" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G86)</f>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="G87" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F87,IborIndex,$D87,$E87,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN0ConvAdj_Quote#0003</v>
       </c>
       <c r="H87" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G87)</f>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="G88" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F88,IborIndex,$D88,$E88,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ0ConvAdj_Quote#0003</v>
       </c>
       <c r="H88" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G88)</f>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="G89" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F89,IborIndex,$D89,$E89,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU0ConvAdj_Quote#0003</v>
       </c>
       <c r="H89" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G89)</f>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="G90" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F90,IborIndex,$D90,$E90,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV0ConvAdj_Quote#0003</v>
       </c>
       <c r="H90" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G90)</f>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="G91" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F91,IborIndex,$D91,$E91,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX0ConvAdj_Quote#0003</v>
       </c>
       <c r="H91" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G91)</f>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="G92" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F92,IborIndex,$D92,$E92,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ0ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ0ConvAdj_Quote#0003</v>
       </c>
       <c r="H92" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G92)</f>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="G93" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F93,IborIndex,$D93,$E93,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF1ConvAdj_Quote#0003</v>
       </c>
       <c r="H93" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G93)</f>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="G94" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F94,IborIndex,$D94,$E94,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG1ConvAdj_Quote#0003</v>
       </c>
       <c r="H94" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G94)</f>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="G95" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F95,IborIndex,$D95,$E95,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH1ConvAdj_Quote#0003</v>
       </c>
       <c r="H95" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G95)</f>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="G96" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F96,IborIndex,$D96,$E96,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ1ConvAdj_Quote#0003</v>
       </c>
       <c r="H96" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G96)</f>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="G97" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F97,IborIndex,$D97,$E97,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK1ConvAdj_Quote#0003</v>
       </c>
       <c r="H97" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G97)</f>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="G98" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F98,IborIndex,$D98,$E98,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM1ConvAdj_Quote#0003</v>
       </c>
       <c r="H98" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G98)</f>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="G99" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F99,IborIndex,$D99,$E99,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN1ConvAdj_Quote#0003</v>
       </c>
       <c r="H99" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G99)</f>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="G100" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F100,IborIndex,$D100,$E100,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ1ConvAdj_Quote#0003</v>
       </c>
       <c r="H100" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G100)</f>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G101" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F101,IborIndex,$D101,$E101,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU1ConvAdj_Quote#0003</v>
       </c>
       <c r="H101" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G101)</f>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="G102" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F102,IborIndex,$D102,$E102,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV1ConvAdj_Quote#0003</v>
       </c>
       <c r="H102" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G102)</f>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="G103" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F103,IborIndex,$D103,$E103,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX1ConvAdj_Quote#0003</v>
       </c>
       <c r="H103" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G103)</f>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="G104" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F104,IborIndex,$D104,$E104,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ1ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ1ConvAdj_Quote#0003</v>
       </c>
       <c r="H104" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G104)</f>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="G105" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F105,IborIndex,$D105,$E105,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF2ConvAdj_Quote#0003</v>
       </c>
       <c r="H105" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G105)</f>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="G106" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F106,IborIndex,$D106,$E106,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG2ConvAdj_Quote#0003</v>
       </c>
       <c r="H106" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G106)</f>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="G107" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F107,IborIndex,$D107,$E107,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH2ConvAdj_Quote#0003</v>
       </c>
       <c r="H107" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G107)</f>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="G108" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F108,IborIndex,$D108,$E108,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ2ConvAdj_Quote#0003</v>
       </c>
       <c r="H108" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G108)</f>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="G109" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F109,IborIndex,$D109,$E109,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK2ConvAdj_Quote#0003</v>
       </c>
       <c r="H109" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G109)</f>
@@ -7482,7 +7482,7 @@
       </c>
       <c r="G110" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F110,IborIndex,$D110,$E110,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM2ConvAdj_Quote#0003</v>
       </c>
       <c r="H110" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G110)</f>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="G111" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F111,IborIndex,$D111,$E111,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN2ConvAdj_Quote#0003</v>
       </c>
       <c r="H111" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G111)</f>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="G112" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F112,IborIndex,$D112,$E112,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ2ConvAdj_Quote#0003</v>
       </c>
       <c r="H112" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G112)</f>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="G113" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F113,IborIndex,$D113,$E113,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU2ConvAdj_Quote#0003</v>
       </c>
       <c r="H113" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G113)</f>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="G114" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F114,IborIndex,$D114,$E114,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV2ConvAdj_Quote#0003</v>
       </c>
       <c r="H114" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G114)</f>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="G115" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F115,IborIndex,$D115,$E115,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MX2ConvAdj_Quote#0003</v>
       </c>
       <c r="H115" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G115)</f>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="G116" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F116,IborIndex,$D116,$E116,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ2ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MZ2ConvAdj_Quote#0003</v>
       </c>
       <c r="H116" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G116)</f>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="G117" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F117,IborIndex,$D117,$E117,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MF3ConvAdj_Quote#0003</v>
       </c>
       <c r="H117" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G117)</f>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="G118" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F118,IborIndex,$D118,$E118,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MG3ConvAdj_Quote#0003</v>
       </c>
       <c r="H118" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G118)</f>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="G119" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F119,IborIndex,$D119,$E119,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MH3ConvAdj_Quote#0003</v>
       </c>
       <c r="H119" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G119)</f>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="G120" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F120,IborIndex,$D120,$E120,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MJ3ConvAdj_Quote#0003</v>
       </c>
       <c r="H120" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G120)</f>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="G121" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F121,IborIndex,$D121,$E121,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MK3ConvAdj_Quote#0003</v>
       </c>
       <c r="H121" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G121)</f>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="G122" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F122,IborIndex,$D122,$E122,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MM3ConvAdj_Quote#0003</v>
       </c>
       <c r="H122" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G122)</f>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="G123" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F123,IborIndex,$D123,$E123,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MN3ConvAdj_Quote#0003</v>
       </c>
       <c r="H123" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G123)</f>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="G124" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F124,IborIndex,$D124,$E124,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MQ3ConvAdj_Quote#0003</v>
       </c>
       <c r="H124" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G124)</f>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="G125" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F125,IborIndex,$D125,$E125,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MU3ConvAdj_Quote#0003</v>
       </c>
       <c r="H125" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G125)</f>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="G126" s="18" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($F126,IborIndex,$D126,$E126,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV3ConvAdj_Quote#0001</v>
+        <v>HKDFUT3MV3ConvAdj_Quote#0003</v>
       </c>
       <c r="H126" s="29" t="str">
         <f>_xll.ohRangeRetrieveError(G126)</f>
